--- a/Glycosyltransferase_activity_genes_wide.xlsx
+++ b/Glycosyltransferase_activity_genes_wide.xlsx
@@ -416,19 +416,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>16.71918139775104</v>
+        <v>16.2465225412081</v>
       </c>
       <c r="E2">
-        <v>19.55859066823818</v>
+        <v>18.98499450997802</v>
       </c>
       <c r="F2">
-        <v>15.11300391651624</v>
+        <v>14.76600571470689</v>
       </c>
       <c r="G2">
-        <v>18.24126480006122</v>
+        <v>17.64701133489178</v>
       </c>
       <c r="H2">
-        <v>16.05848509490548</v>
+        <v>15.56804085970694</v>
       </c>
     </row>
     <row r="3">
@@ -448,19 +448,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>1.395306046913606</v>
+        <v>1.355860110837434</v>
       </c>
       <c r="E3">
-        <v>1.49423156147387</v>
+        <v>1.45041012782608</v>
       </c>
       <c r="F3">
-        <v>1.458181448393876</v>
+        <v>1.424701251915435</v>
       </c>
       <c r="G3">
-        <v>3.691660199463689</v>
+        <v>3.571395410272534</v>
       </c>
       <c r="H3">
-        <v>1.726003850814183</v>
+        <v>1.673289747736624</v>
       </c>
     </row>
     <row r="4">
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>27.12786609276401</v>
+        <v>26.36094898941943</v>
       </c>
       <c r="E4">
-        <v>9.736310597708824</v>
+        <v>9.450773134953767</v>
       </c>
       <c r="F4">
-        <v>9.120596687035802</v>
+        <v>8.911185595282493</v>
       </c>
       <c r="G4">
-        <v>9.152366449894593</v>
+        <v>8.854205903629616</v>
       </c>
       <c r="H4">
-        <v>19.7237515396138</v>
+        <v>19.12136593587084</v>
       </c>
     </row>
     <row r="5">
@@ -512,19 +512,19 @@
         </is>
       </c>
       <c r="D5">
-        <v>5.149102489128173</v>
+        <v>5.003535021628773</v>
       </c>
       <c r="E5">
-        <v>6.698244390919095</v>
+        <v>6.501804508573271</v>
       </c>
       <c r="F5">
-        <v>6.318753238004594</v>
+        <v>6.173673145166902</v>
       </c>
       <c r="G5">
-        <v>7.598027921699221</v>
+        <v>7.350503724752707</v>
       </c>
       <c r="H5">
-        <v>6.352663353204861</v>
+        <v>6.158645853962371</v>
       </c>
     </row>
     <row r="6">
@@ -544,19 +544,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>1.553374241767454</v>
+        <v>1.191781244053945</v>
       </c>
       <c r="E6">
-        <v>2.202413426354467</v>
+        <v>1.687900350822177</v>
       </c>
       <c r="F6">
-        <v>2.140540683000468</v>
+        <v>1.651242138522101</v>
       </c>
       <c r="G6">
-        <v>2.615824606557069</v>
+        <v>1.998020210253548</v>
       </c>
       <c r="H6">
-        <v>2.596285045377353</v>
+        <v>1.987269654361459</v>
       </c>
     </row>
     <row r="7">
@@ -576,19 +576,19 @@
         </is>
       </c>
       <c r="D7">
-        <v>4.977501827957689</v>
+        <v>4.83678558913757</v>
       </c>
       <c r="E7">
-        <v>3.845641813822506</v>
+        <v>3.732860407029462</v>
       </c>
       <c r="F7">
-        <v>5.91271089893837</v>
+        <v>5.776953635783826</v>
       </c>
       <c r="G7">
-        <v>7.702409550667872</v>
+        <v>7.451484868864932</v>
       </c>
       <c r="H7">
-        <v>5.516149887079751</v>
+        <v>5.347680451972973</v>
       </c>
     </row>
     <row r="8">
@@ -608,19 +608,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>90.76589014616172</v>
+        <v>88.19989718101829</v>
       </c>
       <c r="E8">
-        <v>141.5582527946039</v>
+        <v>137.406764001249</v>
       </c>
       <c r="F8">
-        <v>113.5459878964337</v>
+        <v>110.938944727493</v>
       </c>
       <c r="G8">
-        <v>101.7798884436634</v>
+        <v>98.46416159823094</v>
       </c>
       <c r="H8">
-        <v>98.09825861004927</v>
+        <v>95.1022272201657</v>
       </c>
     </row>
     <row r="9">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>157.3468548744218</v>
+        <v>152.898587777112</v>
       </c>
       <c r="E9">
-        <v>126.7987951531092</v>
+        <v>123.080158007645</v>
       </c>
       <c r="F9">
-        <v>94.45673874188762</v>
+        <v>92.28798932097399</v>
       </c>
       <c r="G9">
-        <v>110.0474420367841</v>
+        <v>106.4623795709856</v>
       </c>
       <c r="H9">
-        <v>124.6157816202849</v>
+        <v>120.8098751883128</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="D11">
-        <v>1.378819351751325</v>
+        <v>1.492341559182941</v>
       </c>
       <c r="E11">
-        <v>2.092519102411715</v>
+        <v>2.262339640623916</v>
       </c>
       <c r="F11">
-        <v>0.8774367383355487</v>
+        <v>0.9548683695510457</v>
       </c>
       <c r="G11">
-        <v>2.45846186071148</v>
+        <v>2.649080451094694</v>
       </c>
       <c r="H11">
-        <v>2.06725023783123</v>
+        <v>2.232224631768771</v>
       </c>
     </row>
     <row r="12">
@@ -736,19 +736,19 @@
         </is>
       </c>
       <c r="D12">
-        <v>23.83263033512435</v>
+        <v>23.15887104424629</v>
       </c>
       <c r="E12">
-        <v>25.33328072558855</v>
+        <v>24.59032982760175</v>
       </c>
       <c r="F12">
-        <v>35.63024407094368</v>
+        <v>34.81216510458187</v>
       </c>
       <c r="G12">
-        <v>36.75709579229535</v>
+        <v>35.5596442019833</v>
       </c>
       <c r="H12">
-        <v>22.58496625356547</v>
+        <v>21.89519592742624</v>
       </c>
     </row>
     <row r="13">
@@ -768,19 +768,19 @@
         </is>
       </c>
       <c r="D13">
-        <v>5.7230497208033</v>
+        <v>5.561256504220513</v>
       </c>
       <c r="E13">
-        <v>2.594282175991373</v>
+        <v>2.518199480932573</v>
       </c>
       <c r="F13">
-        <v>7.213460758248306</v>
+        <v>7.047837965733909</v>
       </c>
       <c r="G13">
-        <v>14.09752000760707</v>
+        <v>13.63825908427527</v>
       </c>
       <c r="H13">
-        <v>10.95923818625116</v>
+        <v>10.62453069928405</v>
       </c>
     </row>
     <row r="14">
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.6550132796670499</v>
+        <v>0.6364957565645426</v>
       </c>
       <c r="E14">
-        <v>4.124968354796407</v>
+        <v>4.003995118974346</v>
       </c>
       <c r="F14">
-        <v>1.623683336455899</v>
+        <v>1.586403176854917</v>
       </c>
       <c r="G14">
-        <v>1.458107306611249</v>
+        <v>1.410605922850859</v>
       </c>
       <c r="H14">
-        <v>1.033561319818699</v>
+        <v>1.001995192127732</v>
       </c>
     </row>
     <row r="15">
@@ -832,19 +832,19 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.03337156931003367</v>
+        <v>0.0318551412727699</v>
       </c>
       <c r="E15">
-        <v>0.1107864772110194</v>
+        <v>0.1056372699394036</v>
       </c>
       <c r="F15">
-        <v>0.09009468476819948</v>
+        <v>0.08647068614377222</v>
       </c>
       <c r="G15">
-        <v>0.119004321017978</v>
+        <v>0.1130931876731441</v>
       </c>
       <c r="H15">
-        <v>0.1010295144769641</v>
+        <v>0.0962133094799881</v>
       </c>
     </row>
     <row r="16">
@@ -864,19 +864,19 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.9025067447418512</v>
+        <v>0.8769924689024043</v>
       </c>
       <c r="E16">
-        <v>1.451250221308909</v>
+        <v>1.408689304434218</v>
       </c>
       <c r="F16">
-        <v>1.294410238215989</v>
+        <v>1.26469026807996</v>
       </c>
       <c r="G16">
-        <v>0.9051677832868625</v>
+        <v>0.8756797462634567</v>
       </c>
       <c r="H16">
-        <v>1.124211321782027</v>
+        <v>1.089876640854507</v>
       </c>
     </row>
     <row r="17">
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.2864944751865678</v>
+        <v>0.2783951461688346</v>
       </c>
       <c r="E17">
-        <v>0.1409037661901008</v>
+        <v>0.1367714715712314</v>
       </c>
       <c r="F17">
-        <v>0.3437607382361971</v>
+        <v>0.3358679090753276</v>
       </c>
       <c r="G17">
-        <v>0.1135167223007951</v>
+        <v>0.1098186396118306</v>
       </c>
       <c r="H17">
-        <v>0.1927415616670445</v>
+        <v>0.1868550171241377</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>1.420878773630226</v>
+        <v>1.380709884947643</v>
       </c>
       <c r="E18">
-        <v>1.777425500145158</v>
+        <v>1.725298818025237</v>
       </c>
       <c r="F18">
-        <v>1.250872353298337</v>
+        <v>1.222152023462837</v>
       </c>
       <c r="G18">
-        <v>1.725686488601491</v>
+        <v>1.669468063679329</v>
       </c>
       <c r="H18">
-        <v>1.028640254318267</v>
+        <v>0.9972244215144865</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02145628436447481</v>
+        <v>0.1104361160834778</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.2481710154310028</v>
+        <v>0.2411551080375646</v>
       </c>
       <c r="E20">
-        <v>0.1830832726041834</v>
+        <v>0.1777139766467812</v>
       </c>
       <c r="F20">
-        <v>0.3722211895091195</v>
+        <v>0.3636749015475417</v>
       </c>
       <c r="G20">
-        <v>0.4588824306043908</v>
+        <v>0.4439332219019812</v>
       </c>
       <c r="H20">
-        <v>0.05565304420328814</v>
+        <v>0.05395333750371836</v>
       </c>
     </row>
     <row r="21">
@@ -1024,19 +1024,19 @@
         </is>
       </c>
       <c r="D21">
-        <v>10.862287900782</v>
+        <v>10.55520608520254</v>
       </c>
       <c r="E21">
-        <v>8.970709075619084</v>
+        <v>8.707624462319176</v>
       </c>
       <c r="F21">
-        <v>9.787169531075234</v>
+        <v>9.562453766635123</v>
       </c>
       <c r="G21">
-        <v>12.27573279512083</v>
+        <v>11.87582101099004</v>
       </c>
       <c r="H21">
-        <v>11.44752270571069</v>
+        <v>11.097902459147</v>
       </c>
     </row>
     <row r="22">
@@ -1056,19 +1056,19 @@
         </is>
       </c>
       <c r="D22">
-        <v>9.356049134877654</v>
+        <v>9.091549373756239</v>
       </c>
       <c r="E22">
-        <v>10.24298413224677</v>
+        <v>9.942587419260819</v>
       </c>
       <c r="F22">
-        <v>8.617120656055208</v>
+        <v>8.41926949496621</v>
       </c>
       <c r="G22">
-        <v>8.607779280244936</v>
+        <v>8.327359982528142</v>
       </c>
       <c r="H22">
-        <v>8.133011707753774</v>
+        <v>7.884620363034992</v>
       </c>
     </row>
     <row r="23">
@@ -1088,19 +1088,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>11.1576548415129</v>
+        <v>10.84222286828247</v>
       </c>
       <c r="E23">
-        <v>30.71318672570265</v>
+        <v>29.81245894768341</v>
       </c>
       <c r="F23">
-        <v>14.2455782435381</v>
+        <v>13.91849634363599</v>
       </c>
       <c r="G23">
-        <v>16.30228731188722</v>
+        <v>15.7712007435236</v>
       </c>
       <c r="H23">
-        <v>11.91641936534791</v>
+        <v>11.55247848627973</v>
       </c>
     </row>
     <row r="24">
@@ -1120,19 +1120,19 @@
         </is>
       </c>
       <c r="D24">
-        <v>6.950402552493647</v>
+        <v>6.75391151355937</v>
       </c>
       <c r="E24">
-        <v>7.356879991660447</v>
+        <v>7.141124256925926</v>
       </c>
       <c r="F24">
-        <v>3.416327389684836</v>
+        <v>3.337887691821916</v>
       </c>
       <c r="G24">
-        <v>4.624813312910124</v>
+        <v>4.474148796656331</v>
       </c>
       <c r="H24">
-        <v>3.862734386806206</v>
+        <v>3.744762124733161</v>
       </c>
     </row>
     <row r="25">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>7.494445681694225</v>
+        <v>7.282574296244145</v>
       </c>
       <c r="E25">
-        <v>6.877386705388171</v>
+        <v>6.675693103840167</v>
       </c>
       <c r="F25">
-        <v>7.490470506500596</v>
+        <v>7.318487503596645</v>
       </c>
       <c r="G25">
-        <v>8.054893966734118</v>
+        <v>7.792486249738087</v>
       </c>
       <c r="H25">
-        <v>7.062245242461858</v>
+        <v>6.846556312512758</v>
       </c>
     </row>
     <row r="26">
@@ -1184,19 +1184,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>1.74205990762857</v>
+        <v>1.69281108231947</v>
       </c>
       <c r="E26">
-        <v>1.71780194327487</v>
+        <v>1.667423845382858</v>
       </c>
       <c r="F26">
-        <v>1.816054422981536</v>
+        <v>1.774357377004209</v>
       </c>
       <c r="G26">
-        <v>2.501303488775897</v>
+        <v>2.419817457958533</v>
       </c>
       <c r="H26">
-        <v>1.653543782120793</v>
+        <v>1.603042691214851</v>
       </c>
     </row>
     <row r="27">
@@ -1216,19 +1216,19 @@
         </is>
       </c>
       <c r="D27">
-        <v>66.05090216031161</v>
+        <v>71.55663111449826</v>
       </c>
       <c r="E27">
-        <v>44.68449498878235</v>
+        <v>48.35657093236317</v>
       </c>
       <c r="F27">
-        <v>51.52488996924828</v>
+        <v>56.12482948491967</v>
       </c>
       <c r="G27">
-        <v>47.91500958580909</v>
+        <v>51.67893087178243</v>
       </c>
       <c r="H27">
-        <v>63.92475550029201</v>
+        <v>69.09143131106353</v>
       </c>
     </row>
     <row r="28">
@@ -1248,19 +1248,19 @@
         </is>
       </c>
       <c r="D28">
-        <v>1.450050798009183</v>
+        <v>1.409057202939488</v>
       </c>
       <c r="E28">
-        <v>1.697640995393918</v>
+        <v>1.647854159032327</v>
       </c>
       <c r="F28">
-        <v>1.503496910219332</v>
+        <v>1.468976259847379</v>
       </c>
       <c r="G28">
-        <v>0.9992150423173232</v>
+        <v>0.9666631876156414</v>
       </c>
       <c r="H28">
-        <v>0.784668522881086</v>
+        <v>0.7607038617493289</v>
       </c>
     </row>
     <row r="29">
@@ -1280,19 +1280,19 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.04543471056317594</v>
+        <v>0.04415025064667318</v>
       </c>
       <c r="E29">
-        <v>0.01675928086380982</v>
+        <v>0.01626778026022618</v>
       </c>
       <c r="F29">
-        <v>0.06133103732243375</v>
+        <v>0.05992286196672379</v>
       </c>
       <c r="G29">
-        <v>0.1260170756493946</v>
+        <v>0.1219117636167048</v>
       </c>
       <c r="H29">
-        <v>0.1069830394372137</v>
+        <v>0.1037156568263443</v>
       </c>
     </row>
     <row r="30">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="D30">
-        <v>1.779261392683813</v>
+        <v>1.594371096591054</v>
       </c>
       <c r="E30">
-        <v>1.62436106833849</v>
+        <v>1.453984376644076</v>
       </c>
       <c r="F30">
-        <v>1.781316375378845</v>
+        <v>1.604935366417211</v>
       </c>
       <c r="G30">
-        <v>1.797726114159195</v>
+        <v>1.603777046933712</v>
       </c>
       <c r="H30">
-        <v>1.226938354384829</v>
+        <v>1.096873091079164</v>
       </c>
     </row>
     <row r="31">
@@ -1344,19 +1344,19 @@
         </is>
       </c>
       <c r="D31">
-        <v>4.626803577100133</v>
+        <v>4.362862733607163</v>
       </c>
       <c r="E31">
-        <v>3.947951533439067</v>
+        <v>3.718688575567695</v>
       </c>
       <c r="F31">
-        <v>4.326765512512228</v>
+        <v>4.102236321123627</v>
       </c>
       <c r="G31">
-        <v>4.373324991550819</v>
+        <v>4.10556608954297</v>
       </c>
       <c r="H31">
-        <v>4.247176438878306</v>
+        <v>3.99553345842172</v>
       </c>
     </row>
     <row r="32">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="D32">
-        <v>7.389822041598911</v>
+        <v>7.18090841400302</v>
       </c>
       <c r="E32">
-        <v>3.933501802741245</v>
+        <v>3.818143719900145</v>
       </c>
       <c r="F32">
-        <v>5.976769715539133</v>
+        <v>5.839541646561123</v>
       </c>
       <c r="G32">
-        <v>8.672939912340684</v>
+        <v>8.390397848914388</v>
       </c>
       <c r="H32">
-        <v>4.719839975171194</v>
+        <v>4.57569074233872</v>
       </c>
     </row>
     <row r="33">
@@ -1408,19 +1408,19 @@
         </is>
       </c>
       <c r="D33">
-        <v>0.3268317262446076</v>
+        <v>0.3175920448072431</v>
       </c>
       <c r="E33">
-        <v>0.7446157171355915</v>
+        <v>0.7227783198520181</v>
       </c>
       <c r="F33">
-        <v>0.2595182062866367</v>
+        <v>0.2535596059040989</v>
       </c>
       <c r="G33">
-        <v>0.5256152637189773</v>
+        <v>0.5084920710437687</v>
       </c>
       <c r="H33">
-        <v>0.3492192479038583</v>
+        <v>0.3385536984486887</v>
       </c>
     </row>
     <row r="34">
@@ -1440,19 +1440,19 @@
         </is>
       </c>
       <c r="D34">
-        <v>27.52480684523387</v>
+        <v>26.74666804641784</v>
       </c>
       <c r="E34">
-        <v>24.76454334249597</v>
+        <v>24.0382718455731</v>
       </c>
       <c r="F34">
-        <v>25.44188764195335</v>
+        <v>24.85773578761913</v>
       </c>
       <c r="G34">
-        <v>28.73634796453631</v>
+        <v>27.80019169788406</v>
       </c>
       <c r="H34">
-        <v>22.33916410165504</v>
+        <v>21.65690085029226</v>
       </c>
     </row>
     <row r="35">
@@ -1472,19 +1472,19 @@
         </is>
       </c>
       <c r="D35">
-        <v>89.06574356336354</v>
+        <v>86.54781451478773</v>
       </c>
       <c r="E35">
-        <v>85.02598592293246</v>
+        <v>82.53242287920681</v>
       </c>
       <c r="F35">
-        <v>82.32315471285038</v>
+        <v>80.43299529712938</v>
       </c>
       <c r="G35">
-        <v>91.65894197072268</v>
+        <v>88.67292951616507</v>
       </c>
       <c r="H35">
-        <v>87.19537739922856</v>
+        <v>84.53233229075941</v>
       </c>
     </row>
     <row r="36">
@@ -1504,19 +1504,19 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.3753905899623768</v>
+        <v>0.3647781273789838</v>
       </c>
       <c r="E36">
-        <v>0.2596284420887389</v>
+        <v>0.2520143005852302</v>
       </c>
       <c r="F36">
-        <v>0.3167057465274796</v>
+        <v>0.3094341064779709</v>
       </c>
       <c r="G36">
-        <v>0.4239082152733349</v>
+        <v>0.4100983765038694</v>
       </c>
       <c r="H36">
-        <v>0.4545849035839875</v>
+        <v>0.4407013682409319</v>
       </c>
     </row>
     <row r="37">
@@ -1536,19 +1536,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>1.242308705727402</v>
+        <v>1.533671965204134</v>
       </c>
       <c r="E37">
-        <v>1.136798544226874</v>
+        <v>1.401890102588817</v>
       </c>
       <c r="F37">
-        <v>1.354465725656002</v>
+        <v>1.681271300988651</v>
       </c>
       <c r="G37">
-        <v>0.709955355771237</v>
+        <v>0.8725790851911386</v>
       </c>
       <c r="H37">
-        <v>1.398313529545554</v>
+        <v>1.722231356707395</v>
       </c>
     </row>
     <row r="38">
@@ -1568,19 +1568,19 @@
         </is>
       </c>
       <c r="D38">
-        <v>3.893636363827933</v>
+        <v>3.783561494267128</v>
       </c>
       <c r="E38">
-        <v>3.638196772027859</v>
+        <v>3.531499120503375</v>
       </c>
       <c r="F38">
-        <v>4.384394449912914</v>
+        <v>4.283727699705828</v>
       </c>
       <c r="G38">
-        <v>5.726323865881807</v>
+        <v>5.539774970436175</v>
       </c>
       <c r="H38">
-        <v>4.109637921161831</v>
+        <v>3.984124946851038</v>
       </c>
     </row>
     <row r="39">
@@ -1606,24 +1606,24 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.07565657031042099</v>
+        <v>0.07391947727466201</v>
       </c>
       <c r="G39">
-        <v>0.04996664788552817</v>
+        <v>0.04833886308144066</v>
       </c>
       <c r="H39">
-        <v>0.01413984000114224</v>
+        <v>0.01370799334971744</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Naprt</t>
+          <t>Tymp</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022574</t>
+          <t>ENSMUSG00000022615</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1632,30 +1632,30 @@
         </is>
       </c>
       <c r="D40">
-        <v>22.8676824720933</v>
+        <v>0.1982462571992656</v>
       </c>
       <c r="E40">
-        <v>23.01111334011695</v>
+        <v>0.5321967975166779</v>
       </c>
       <c r="F40">
-        <v>20.05600637773611</v>
+        <v>0.3075079285348483</v>
       </c>
       <c r="G40">
-        <v>18.74387317807291</v>
+        <v>0.3016373532784449</v>
       </c>
       <c r="H40">
-        <v>19.17770040281905</v>
+        <v>0.4562063255591778</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Tymp</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022615</t>
+          <t>ENSMUSG00000022686</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1664,30 +1664,30 @@
         </is>
       </c>
       <c r="D41">
-        <v>0.2040138206273192</v>
+        <v>0.02763576567424493</v>
       </c>
       <c r="E41">
-        <v>0.5482761299775583</v>
+        <v>0.01527417931020039</v>
       </c>
       <c r="F41">
-        <v>0.314734303785227</v>
+        <v>0.01875430091094269</v>
       </c>
       <c r="G41">
-        <v>0.3117948263490175</v>
+        <v>0.06540894622788472</v>
       </c>
       <c r="H41">
-        <v>0.470578317799428</v>
+        <v>0.01391156115515038</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B3gnt5</t>
+          <t>Qtrtd1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022686</t>
+          <t>ENSMUSG00000022704</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1696,30 +1696,30 @@
         </is>
       </c>
       <c r="D42">
-        <v>0.02788540244365895</v>
+        <v>1.346491046693145</v>
       </c>
       <c r="E42">
-        <v>0.01542892930627865</v>
+        <v>0.5622846870028386</v>
       </c>
       <c r="F42">
-        <v>0.01882086005197591</v>
+        <v>1.137125402743361</v>
       </c>
       <c r="G42">
-        <v>0.06629362363894875</v>
+        <v>1.823617874847389</v>
       </c>
       <c r="H42">
-        <v>0.01407010382452787</v>
+        <v>0.9338712668596149</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Qtrtd1</t>
+          <t>Gbe1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022704</t>
+          <t>ENSMUSG00000022707</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1728,30 +1728,30 @@
         </is>
       </c>
       <c r="D43">
-        <v>1.882706822491011</v>
+        <v>1.701303671031767</v>
       </c>
       <c r="E43">
-        <v>0.7870602373250783</v>
+        <v>1.752384479506402</v>
       </c>
       <c r="F43">
-        <v>1.581323621449455</v>
+        <v>3.043802925995156</v>
       </c>
       <c r="G43">
-        <v>2.561192714396433</v>
+        <v>4.209714518453506</v>
       </c>
       <c r="H43">
-        <v>1.308827036384799</v>
+        <v>3.484067506793818</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gbe1</t>
+          <t>Arl6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022707</t>
+          <t>ENSMUSG00000022722</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1760,19 +1760,19 @@
         </is>
       </c>
       <c r="D44">
-        <v>1.835694279207446</v>
+        <v>3.877724844533276</v>
       </c>
       <c r="E44">
-        <v>1.892868320752996</v>
+        <v>4.361606745241775</v>
       </c>
       <c r="F44">
-        <v>3.266391343553183</v>
+        <v>4.570531500009073</v>
       </c>
       <c r="G44">
-        <v>4.56247346272439</v>
+        <v>4.42792726343692</v>
       </c>
       <c r="H44">
-        <v>3.768088500768202</v>
+        <v>4.554682854024838</v>
       </c>
     </row>
     <row r="45">
@@ -1792,19 +1792,19 @@
         </is>
       </c>
       <c r="D45">
-        <v>13.15506218252539</v>
+        <v>5.946666470802612</v>
       </c>
       <c r="E45">
-        <v>12.15965341505617</v>
+        <v>5.490721079342895</v>
       </c>
       <c r="F45">
-        <v>14.62394563892581</v>
+        <v>6.64679170655227</v>
       </c>
       <c r="G45">
-        <v>12.65689752507788</v>
+        <v>5.696114999544509</v>
       </c>
       <c r="H45">
-        <v>12.93167250423547</v>
+        <v>5.832024709827714</v>
       </c>
     </row>
     <row r="46">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.6441842643505848</v>
+        <v>2.168784242292717</v>
       </c>
       <c r="E46">
-        <v>0.7698794646812634</v>
+        <v>2.589145658259157</v>
       </c>
       <c r="F46">
-        <v>0.6956529696294569</v>
+        <v>2.354863347464233</v>
       </c>
       <c r="G46">
-        <v>0.8576162092806019</v>
+        <v>2.87455105790967</v>
       </c>
       <c r="H46">
-        <v>0.9361015950756201</v>
+        <v>3.144222017472333</v>
       </c>
     </row>
     <row r="47">
@@ -1856,19 +1856,19 @@
         </is>
       </c>
       <c r="D47">
-        <v>8.128170608443254</v>
+        <v>7.898383531302657</v>
       </c>
       <c r="E47">
-        <v>3.243334537777018</v>
+        <v>3.148217038649512</v>
       </c>
       <c r="F47">
-        <v>6.371574202658961</v>
+        <v>6.225281327779119</v>
       </c>
       <c r="G47">
-        <v>11.42400492913455</v>
+        <v>11.05184024704364</v>
       </c>
       <c r="H47">
-        <v>7.566194293148524</v>
+        <v>7.335114191162813</v>
       </c>
     </row>
     <row r="48">
@@ -1888,19 +1888,19 @@
         </is>
       </c>
       <c r="D48">
-        <v>0.3162078391613842</v>
+        <v>0.30726849984014</v>
       </c>
       <c r="E48">
-        <v>0.5248712195962808</v>
+        <v>0.5094782845812513</v>
       </c>
       <c r="F48">
-        <v>0.5869050886247987</v>
+        <v>0.5734296067476985</v>
       </c>
       <c r="G48">
-        <v>0.6107884891661732</v>
+        <v>0.5908905719904199</v>
       </c>
       <c r="H48">
-        <v>0.4653501049643561</v>
+        <v>0.4511377882370947</v>
       </c>
     </row>
     <row r="49">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="D49">
-        <v>9.645057023421327</v>
+        <v>7.853468485943735</v>
       </c>
       <c r="E49">
-        <v>12.19791533950428</v>
+        <v>9.921328533902994</v>
       </c>
       <c r="F49">
-        <v>5.957204199256734</v>
+        <v>4.877148983372055</v>
       </c>
       <c r="G49">
-        <v>5.506941967160895</v>
+        <v>4.464142144611692</v>
       </c>
       <c r="H49">
-        <v>5.279701159175243</v>
+        <v>4.28894057766664</v>
       </c>
     </row>
     <row r="50">
@@ -1952,19 +1952,19 @@
         </is>
       </c>
       <c r="D50">
-        <v>10.96506998991687</v>
+        <v>8.855868989361928</v>
       </c>
       <c r="E50">
-        <v>7.367008421928009</v>
+        <v>5.94344778805632</v>
       </c>
       <c r="F50">
-        <v>9.620935634854252</v>
+        <v>7.812749751743314</v>
       </c>
       <c r="G50">
-        <v>7.820373665629973</v>
+        <v>6.288080439177405</v>
       </c>
       <c r="H50">
-        <v>9.563549805099738</v>
+        <v>7.705891344904705</v>
       </c>
     </row>
     <row r="51">
@@ -1984,19 +1984,19 @@
         </is>
       </c>
       <c r="D51">
-        <v>2.224797575990222</v>
+        <v>2.161901537404955</v>
       </c>
       <c r="E51">
-        <v>1.730019485792873</v>
+        <v>1.679283083175813</v>
       </c>
       <c r="F51">
-        <v>1.488067932333639</v>
+        <v>1.453901535001761</v>
       </c>
       <c r="G51">
-        <v>2.168072307593905</v>
+        <v>2.09744209112332</v>
       </c>
       <c r="H51">
-        <v>1.233808449417698</v>
+        <v>1.196126548679245</v>
       </c>
     </row>
     <row r="52">
@@ -2016,19 +2016,19 @@
         </is>
       </c>
       <c r="D52">
-        <v>5.480727367198804</v>
+        <v>20.76234580539352</v>
       </c>
       <c r="E52">
-        <v>4.169651612209327</v>
+        <v>15.77849226782349</v>
       </c>
       <c r="F52">
-        <v>7.27937873027097</v>
+        <v>27.7267754968222</v>
       </c>
       <c r="G52">
-        <v>5.781911060787915</v>
+        <v>21.80622239704452</v>
       </c>
       <c r="H52">
-        <v>7.95053646196768</v>
+        <v>30.04821214480464</v>
       </c>
     </row>
     <row r="53">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="D53">
-        <v>14.85803600736552</v>
+        <v>14.43799257685045</v>
       </c>
       <c r="E53">
-        <v>12.68109437025987</v>
+        <v>12.30919502757728</v>
       </c>
       <c r="F53">
-        <v>16.38396378402103</v>
+        <v>16.00778403822267</v>
       </c>
       <c r="G53">
-        <v>16.27858289363881</v>
+        <v>15.74826855422084</v>
       </c>
       <c r="H53">
-        <v>15.56693187947385</v>
+        <v>15.09150023353121</v>
       </c>
     </row>
     <row r="54">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="D54">
-        <v>6.559073230310046</v>
+        <v>5.47198242307531</v>
       </c>
       <c r="E54">
-        <v>7.971657182925666</v>
+        <v>6.643215462246561</v>
       </c>
       <c r="F54">
-        <v>4.275605334017195</v>
+        <v>3.586465469096064</v>
       </c>
       <c r="G54">
-        <v>6.996982104045704</v>
+        <v>5.811440373459458</v>
       </c>
       <c r="H54">
-        <v>6.081566547800063</v>
+        <v>5.06176128167485</v>
       </c>
     </row>
     <row r="55">
@@ -2112,19 +2112,19 @@
         </is>
       </c>
       <c r="D55">
-        <v>30.30474893084584</v>
+        <v>29.44801990585895</v>
       </c>
       <c r="E55">
-        <v>21.20601681161016</v>
+        <v>20.58410647147032</v>
       </c>
       <c r="F55">
-        <v>29.26263284235627</v>
+        <v>28.59075576003726</v>
       </c>
       <c r="G55">
-        <v>35.37937845041447</v>
+        <v>34.2268093456872</v>
       </c>
       <c r="H55">
-        <v>29.20034659255725</v>
+        <v>28.30853509430687</v>
       </c>
     </row>
     <row r="56">
@@ -2144,19 +2144,19 @@
         </is>
       </c>
       <c r="D56">
-        <v>11.00299003930825</v>
+        <v>10.69193051032723</v>
       </c>
       <c r="E56">
-        <v>8.133376570133082</v>
+        <v>7.894848465861868</v>
       </c>
       <c r="F56">
-        <v>9.83285223276985</v>
+        <v>9.607087582520579</v>
       </c>
       <c r="G56">
-        <v>11.15487923876586</v>
+        <v>10.79148197909991</v>
       </c>
       <c r="H56">
-        <v>12.67082837019085</v>
+        <v>12.28384698977897</v>
       </c>
     </row>
     <row r="57">
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.03568516077465208</v>
+        <v>0.03206118583211998</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         </is>
       </c>
       <c r="D58">
-        <v>63.51319012080396</v>
+        <v>61.71764337101325</v>
       </c>
       <c r="E58">
-        <v>69.51890121418731</v>
+        <v>67.48011552971154</v>
       </c>
       <c r="F58">
-        <v>76.22240984965886</v>
+        <v>74.4723250020991</v>
       </c>
       <c r="G58">
-        <v>72.21198817507276</v>
+        <v>69.8595074304444</v>
       </c>
       <c r="H58">
-        <v>67.39350506052563</v>
+        <v>65.33523145305787</v>
       </c>
     </row>
     <row r="59">
@@ -2240,19 +2240,19 @@
         </is>
       </c>
       <c r="D59">
-        <v>13.48250400380081</v>
+        <v>29.7980360255353</v>
       </c>
       <c r="E59">
-        <v>12.72011419598877</v>
+        <v>28.08248940669045</v>
       </c>
       <c r="F59">
-        <v>11.69435268818914</v>
+        <v>25.98723657476424</v>
       </c>
       <c r="G59">
-        <v>14.93417775857639</v>
+        <v>32.86012479093939</v>
       </c>
       <c r="H59">
-        <v>12.79200865740734</v>
+        <v>28.20589012081962</v>
       </c>
     </row>
     <row r="60">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="D60">
-        <v>2.186357743436682</v>
+        <v>1.589583702808016</v>
       </c>
       <c r="E60">
-        <v>1.935530771262886</v>
+        <v>1.405690685987497</v>
       </c>
       <c r="F60">
-        <v>2.588065529617488</v>
+        <v>1.891926561798045</v>
       </c>
       <c r="G60">
-        <v>2.239034273294625</v>
+        <v>1.620666768554414</v>
       </c>
       <c r="H60">
-        <v>1.900843125637973</v>
+        <v>1.378771936445171</v>
       </c>
     </row>
     <row r="61">
@@ -2304,19 +2304,19 @@
         </is>
       </c>
       <c r="D61">
-        <v>20.74925029429091</v>
+        <v>19.54813083659237</v>
       </c>
       <c r="E61">
-        <v>21.01723482756991</v>
+        <v>19.77907215509238</v>
       </c>
       <c r="F61">
-        <v>18.96894247177604</v>
+        <v>17.96853941366723</v>
       </c>
       <c r="G61">
-        <v>18.09913526908687</v>
+        <v>16.97584739877458</v>
       </c>
       <c r="H61">
-        <v>19.31112343161404</v>
+        <v>18.15074057183256</v>
       </c>
     </row>
     <row r="62">
@@ -2336,19 +2336,19 @@
         </is>
       </c>
       <c r="D62">
-        <v>0.01049832392618035</v>
+        <v>0.03876993336356604</v>
       </c>
       <c r="E62">
-        <v>0.03485219150458062</v>
+        <v>0.1285679407663037</v>
       </c>
       <c r="F62">
-        <v>0.02834278412071209</v>
+        <v>0.1052408686870776</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.02118850648447027</v>
+        <v>0.07806554814886131</v>
       </c>
     </row>
     <row r="63">
@@ -2368,19 +2368,19 @@
         </is>
       </c>
       <c r="D63">
-        <v>5.564314979170051</v>
+        <v>53.42180328247454</v>
       </c>
       <c r="E63">
-        <v>2.866689487905171</v>
+        <v>27.49254863978225</v>
       </c>
       <c r="F63">
-        <v>5.421243529704136</v>
+        <v>52.33263278427211</v>
       </c>
       <c r="G63">
-        <v>8.56382502218452</v>
+        <v>81.85504128550178</v>
       </c>
       <c r="H63">
-        <v>4.238439858312955</v>
+        <v>40.59727138631192</v>
       </c>
     </row>
     <row r="64">
@@ -2400,19 +2400,19 @@
         </is>
       </c>
       <c r="D64">
-        <v>8.403068678611781</v>
+        <v>5.02537413876297</v>
       </c>
       <c r="E64">
-        <v>8.845197440020408</v>
+        <v>5.284033100956187</v>
       </c>
       <c r="F64">
-        <v>8.945344699456161</v>
+        <v>5.378911481167859</v>
       </c>
       <c r="G64">
-        <v>8.851648213623756</v>
+        <v>5.27017992292044</v>
       </c>
       <c r="H64">
-        <v>8.479852423976158</v>
+        <v>5.059443655948015</v>
       </c>
     </row>
     <row r="65">
@@ -2432,19 +2432,19 @@
         </is>
       </c>
       <c r="D65">
-        <v>0.8082602880452554</v>
+        <v>1.765428910359896</v>
       </c>
       <c r="E65">
-        <v>0.4327824834396211</v>
+        <v>0.9442699696952611</v>
       </c>
       <c r="F65">
-        <v>0.4575361823966072</v>
+        <v>1.004826931827655</v>
       </c>
       <c r="G65">
-        <v>0.6508391785844883</v>
+        <v>1.415283652648024</v>
       </c>
       <c r="H65">
-        <v>0.3683561832181623</v>
+        <v>0.8026957053490025</v>
       </c>
     </row>
     <row r="66">
@@ -2464,19 +2464,19 @@
         </is>
       </c>
       <c r="D66">
-        <v>3.077301011777143</v>
+        <v>2.990304313621774</v>
       </c>
       <c r="E66">
-        <v>1.446097853659291</v>
+        <v>1.403688040631493</v>
       </c>
       <c r="F66">
-        <v>2.276143586309494</v>
+        <v>2.22388278257569</v>
       </c>
       <c r="G66">
-        <v>1.737096919720885</v>
+        <v>1.680506772316423</v>
       </c>
       <c r="H66">
-        <v>2.268800078952509</v>
+        <v>2.199508367252178</v>
       </c>
     </row>
     <row r="67">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="D67">
-        <v>1.423956242496584</v>
+        <v>2.373308832230448</v>
       </c>
       <c r="E67">
-        <v>0.2424220700595368</v>
+        <v>0.4036056874689027</v>
       </c>
       <c r="F67">
-        <v>0.7392917168017843</v>
+        <v>1.238911492139015</v>
       </c>
       <c r="G67">
-        <v>0.5859096506208011</v>
+        <v>0.9722077351711901</v>
       </c>
       <c r="H67">
-        <v>0.3316079451190388</v>
+        <v>0.5513996945198052</v>
       </c>
     </row>
     <row r="68">
@@ -2528,19 +2528,19 @@
         </is>
       </c>
       <c r="D68">
-        <v>3.232206150979498</v>
+        <v>3.140830214138564</v>
       </c>
       <c r="E68">
-        <v>2.998153495764344</v>
+        <v>2.910226438226532</v>
       </c>
       <c r="F68">
-        <v>2.566508313893145</v>
+        <v>2.507580666234932</v>
       </c>
       <c r="G68">
-        <v>2.486037425140978</v>
+        <v>2.405048723391197</v>
       </c>
       <c r="H68">
-        <v>2.350371979309163</v>
+        <v>2.278588969827772</v>
       </c>
     </row>
     <row r="69">
@@ -2560,19 +2560,19 @@
         </is>
       </c>
       <c r="D69">
-        <v>39.31889835211349</v>
+        <v>38.20733522629337</v>
       </c>
       <c r="E69">
-        <v>30.28628528858864</v>
+        <v>29.39807727891252</v>
       </c>
       <c r="F69">
-        <v>41.17320136788202</v>
+        <v>40.22785476992504</v>
       </c>
       <c r="G69">
-        <v>37.1829843393601</v>
+        <v>35.971658396165</v>
       </c>
       <c r="H69">
-        <v>39.95575570188407</v>
+        <v>38.7354618864228</v>
       </c>
     </row>
     <row r="70">
@@ -2592,19 +2592,19 @@
         </is>
       </c>
       <c r="D70">
-        <v>10.23586582802584</v>
+        <v>10.86207003357482</v>
       </c>
       <c r="E70">
-        <v>10.70912793504387</v>
+        <v>11.35192809212649</v>
       </c>
       <c r="F70">
-        <v>8.904358011257049</v>
+        <v>9.500740513775677</v>
       </c>
       <c r="G70">
-        <v>15.01846137380594</v>
+        <v>15.8666143168854</v>
       </c>
       <c r="H70">
-        <v>10.28766197416439</v>
+        <v>10.89152473815791</v>
       </c>
     </row>
     <row r="71">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="D71">
-        <v>1.10857259784688</v>
+        <v>1.07723274668864</v>
       </c>
       <c r="E71">
-        <v>1.358177933024454</v>
+        <v>1.318346553666346</v>
       </c>
       <c r="F71">
-        <v>1.309377086683681</v>
+        <v>1.27931347411007</v>
       </c>
       <c r="G71">
-        <v>2.094261770712179</v>
+        <v>2.026036111589385</v>
       </c>
       <c r="H71">
-        <v>1.418354667563727</v>
+        <v>1.37503651731092</v>
       </c>
     </row>
     <row r="72">
@@ -2656,19 +2656,19 @@
         </is>
       </c>
       <c r="D72">
-        <v>30.96881631971124</v>
+        <v>30.09331380783995</v>
       </c>
       <c r="E72">
-        <v>33.56830259493887</v>
+        <v>32.58384263387226</v>
       </c>
       <c r="F72">
-        <v>25.40670110463225</v>
+        <v>24.82335714165079</v>
       </c>
       <c r="G72">
-        <v>26.37929115898512</v>
+        <v>25.51992173741477</v>
       </c>
       <c r="H72">
-        <v>27.58105745221119</v>
+        <v>26.73870086949666</v>
       </c>
     </row>
     <row r="73">
@@ -2688,19 +2688,19 @@
         </is>
       </c>
       <c r="D73">
-        <v>13.85056540557994</v>
+        <v>13.45900362684625</v>
       </c>
       <c r="E73">
-        <v>16.93171932693496</v>
+        <v>16.43516160846699</v>
       </c>
       <c r="F73">
-        <v>22.49171587389804</v>
+        <v>21.9753006723298</v>
       </c>
       <c r="G73">
-        <v>20.45673006703332</v>
+        <v>19.79030244473766</v>
       </c>
       <c r="H73">
-        <v>19.39774232507646</v>
+        <v>18.80531341020835</v>
       </c>
     </row>
     <row r="74">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="D74">
-        <v>25.99493598384309</v>
+        <v>25.26004732956467</v>
       </c>
       <c r="E74">
-        <v>40.42727336103831</v>
+        <v>39.24165988396494</v>
       </c>
       <c r="F74">
-        <v>34.10393709809848</v>
+        <v>33.32090250662813</v>
       </c>
       <c r="G74">
-        <v>31.85640801653587</v>
+        <v>30.81860822254273</v>
       </c>
       <c r="H74">
-        <v>32.64016809543111</v>
+        <v>31.64330057127131</v>
       </c>
     </row>
     <row r="75">
@@ -2752,19 +2752,19 @@
         </is>
       </c>
       <c r="D75">
-        <v>1.758928411192929</v>
+        <v>1.709685122417036</v>
       </c>
       <c r="E75">
-        <v>1.464450930559996</v>
+        <v>1.421904090032979</v>
       </c>
       <c r="F75">
-        <v>1.175857660628752</v>
+        <v>1.149183948000468</v>
       </c>
       <c r="G75">
-        <v>1.154919474348853</v>
+        <v>1.117610522797226</v>
       </c>
       <c r="H75">
-        <v>1.538333998228107</v>
+        <v>1.491772473008892</v>
       </c>
     </row>
     <row r="76">
@@ -2784,19 +2784,19 @@
         </is>
       </c>
       <c r="D76">
-        <v>5.799386986596675</v>
+        <v>5.635435680816628</v>
       </c>
       <c r="E76">
-        <v>7.989752101099133</v>
+        <v>7.755436081689626</v>
       </c>
       <c r="F76">
-        <v>6.067818699707137</v>
+        <v>5.928500124172166</v>
       </c>
       <c r="G76">
-        <v>7.862595414389843</v>
+        <v>7.606452289368666</v>
       </c>
       <c r="H76">
-        <v>7.239087737203069</v>
+        <v>7.017997838135688</v>
       </c>
     </row>
     <row r="77">
@@ -2816,19 +2816,19 @@
         </is>
       </c>
       <c r="D77">
-        <v>0.02567821012221016</v>
+        <v>0.01409471313095194</v>
       </c>
       <c r="E77">
-        <v>0.05683077939977031</v>
+        <v>0.03116037069146671</v>
       </c>
       <c r="F77">
-        <v>0.1733114664820792</v>
+        <v>0.09565014207572164</v>
       </c>
       <c r="G77">
-        <v>0.1831390026738606</v>
+        <v>0.1000790436726431</v>
       </c>
       <c r="H77">
-        <v>0.1036513876900341</v>
+        <v>0.0567610728783316</v>
       </c>
     </row>
     <row r="78">
@@ -2848,19 +2848,19 @@
         </is>
       </c>
       <c r="D78">
-        <v>6.960940561754502</v>
+        <v>27.0323186365196</v>
       </c>
       <c r="E78">
-        <v>6.286311388161116</v>
+        <v>24.38589911324677</v>
       </c>
       <c r="F78">
-        <v>7.12828660200362</v>
+        <v>27.83347010418452</v>
       </c>
       <c r="G78">
-        <v>10.68371182235119</v>
+        <v>41.30554403903864</v>
       </c>
       <c r="H78">
-        <v>7.42825632318767</v>
+        <v>28.7796982389224</v>
       </c>
     </row>
     <row r="79">
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.03875892683547757</v>
+        <v>0.06033084070017657</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2912,19 +2912,19 @@
         </is>
       </c>
       <c r="D80">
-        <v>1.875994855209404</v>
+        <v>0.9018345249937729</v>
       </c>
       <c r="E80">
-        <v>1.469146098863484</v>
+        <v>0.7054848813188997</v>
       </c>
       <c r="F80">
-        <v>3.856967908619363</v>
+        <v>1.864266816742518</v>
       </c>
       <c r="G80">
-        <v>6.381107729528895</v>
+        <v>3.053951250196241</v>
       </c>
       <c r="H80">
-        <v>3.902774564593348</v>
+        <v>1.871770776394631</v>
       </c>
     </row>
     <row r="81">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="D81">
-        <v>84.81979909449852</v>
+        <v>82.42190482572769</v>
       </c>
       <c r="E81">
-        <v>53.18586071312755</v>
+        <v>51.62607525126646</v>
       </c>
       <c r="F81">
-        <v>74.80711391168163</v>
+        <v>73.08952459897509</v>
       </c>
       <c r="G81">
-        <v>92.08044174688111</v>
+        <v>89.08069791430252</v>
       </c>
       <c r="H81">
-        <v>82.49230391950556</v>
+        <v>79.97289597619947</v>
       </c>
     </row>
     <row r="82">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="D82">
-        <v>0.04172032452744195</v>
+        <v>0.04054087199226021</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3008,19 +3008,19 @@
         </is>
       </c>
       <c r="D83">
-        <v>1.621534597728509</v>
+        <v>1.718415429425123</v>
       </c>
       <c r="E83">
-        <v>1.611282476805974</v>
+        <v>1.705694066433928</v>
       </c>
       <c r="F83">
-        <v>1.6974863098383</v>
+        <v>1.808735464754443</v>
       </c>
       <c r="G83">
-        <v>1.691466656431115</v>
+        <v>1.784580709963679</v>
       </c>
       <c r="H83">
-        <v>1.803326149710893</v>
+        <v>1.906602712722585</v>
       </c>
     </row>
     <row r="84">
@@ -3040,19 +3040,19 @@
         </is>
       </c>
       <c r="D84">
-        <v>0.832505126065555</v>
+        <v>0.8089698277999829</v>
       </c>
       <c r="E84">
-        <v>0.8060905642470488</v>
+        <v>0.7824502898170139</v>
       </c>
       <c r="F84">
-        <v>0.5970055984760422</v>
+        <v>0.5832982064654503</v>
       </c>
       <c r="G84">
-        <v>1.175128558202943</v>
+        <v>1.136845893849026</v>
       </c>
       <c r="H84">
-        <v>1.102647277635086</v>
+        <v>1.068971186921831</v>
       </c>
     </row>
     <row r="85">
@@ -3072,19 +3072,19 @@
         </is>
       </c>
       <c r="D85">
-        <v>62.17927224672948</v>
+        <v>61.06803872443405</v>
       </c>
       <c r="E85">
-        <v>64.07329392647705</v>
+        <v>62.8597861546395</v>
       </c>
       <c r="F85">
-        <v>50.01630273499621</v>
+        <v>49.39087864903691</v>
       </c>
       <c r="G85">
-        <v>46.14004033365244</v>
+        <v>45.11460056217701</v>
       </c>
       <c r="H85">
-        <v>60.33339974661502</v>
+        <v>59.11669114896125</v>
       </c>
     </row>
     <row r="86">
@@ -3104,16 +3104,16 @@
         </is>
       </c>
       <c r="D86">
-        <v>0.1300504311118289</v>
+        <v>0.1263738463197947</v>
       </c>
       <c r="E86">
-        <v>0.07195660568032254</v>
+        <v>0.06984632926625042</v>
       </c>
       <c r="F86">
-        <v>0.08777570876376062</v>
+        <v>0.08576035739669852</v>
       </c>
       <c r="G86">
-        <v>0.07729415373894957</v>
+        <v>0.07477610911867982</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.02803717217467658</v>
+        <v>0.02712379325600106</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="D88">
-        <v>0.04468801038957463</v>
+        <v>0.04342466002633518</v>
       </c>
       <c r="E88">
-        <v>0.1978061903985984</v>
+        <v>0.1920051143999598</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.2390387885859799</v>
+        <v>0.2312515199955559</v>
       </c>
       <c r="H88">
-        <v>0.1803854033416325</v>
+        <v>0.1748762298012881</v>
       </c>
     </row>
     <row r="89">
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="D89">
-        <v>0.01320609983373371</v>
+        <v>0.01283275738960878</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.006663385839710787</v>
+        <v>0.006459878525498034</v>
       </c>
     </row>
     <row r="90">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="D90">
-        <v>1.310161521349366</v>
+        <v>1.273122659706843</v>
       </c>
       <c r="E90">
-        <v>1.010954687726512</v>
+        <v>0.9813063488000927</v>
       </c>
       <c r="F90">
-        <v>0.8412562978546562</v>
+        <v>0.8219408510891502</v>
       </c>
       <c r="G90">
-        <v>1.456344302625951</v>
+        <v>1.408900352998492</v>
       </c>
       <c r="H90">
-        <v>1.515093217462247</v>
+        <v>1.468820562856209</v>
       </c>
     </row>
     <row r="91">
@@ -3296,19 +3296,19 @@
         </is>
       </c>
       <c r="D92">
-        <v>1.246523804691583</v>
+        <v>1.211284010220646</v>
       </c>
       <c r="E92">
-        <v>1.11175323511478</v>
+        <v>1.079148770129952</v>
       </c>
       <c r="F92">
-        <v>1.531962566023228</v>
+        <v>1.496788337353284</v>
       </c>
       <c r="G92">
-        <v>2.189403533062499</v>
+        <v>2.11807840015986</v>
       </c>
       <c r="H92">
-        <v>1.220364348327978</v>
+        <v>1.18309304559039</v>
       </c>
     </row>
     <row r="93">
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.03909230346405534</v>
+        <v>0.03819473478204183</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3360,19 +3360,19 @@
         </is>
       </c>
       <c r="D94">
-        <v>0.6519182481978392</v>
+        <v>0.633488223041577</v>
       </c>
       <c r="E94">
-        <v>1.009973646199725</v>
+        <v>0.9803540783468662</v>
       </c>
       <c r="F94">
-        <v>1.232008538892813</v>
+        <v>1.203721326769327</v>
       </c>
       <c r="G94">
-        <v>1.446521044057472</v>
+        <v>1.39939711091503</v>
       </c>
       <c r="H94">
-        <v>1.162246197107065</v>
+        <v>1.126749888215922</v>
       </c>
     </row>
     <row r="95">
@@ -3392,19 +3392,19 @@
         </is>
       </c>
       <c r="D95">
-        <v>3.844091838736136</v>
+        <v>3.73541761541636</v>
       </c>
       <c r="E95">
-        <v>3.172055236003702</v>
+        <v>3.079028149951155</v>
       </c>
       <c r="F95">
-        <v>4.070705671905957</v>
+        <v>3.977241291426124</v>
       </c>
       <c r="G95">
-        <v>4.549698271282634</v>
+        <v>4.401480809784239</v>
       </c>
       <c r="H95">
-        <v>3.76217219343816</v>
+        <v>3.647271214099744</v>
       </c>
     </row>
     <row r="96">
@@ -3424,19 +3424,19 @@
         </is>
       </c>
       <c r="D96">
-        <v>10.71461970148441</v>
+        <v>10.41171253301041</v>
       </c>
       <c r="E96">
-        <v>11.93830883531401</v>
+        <v>11.58819321603374</v>
       </c>
       <c r="F96">
-        <v>10.247473465469</v>
+        <v>10.01218901207713</v>
       </c>
       <c r="G96">
-        <v>10.99500940613215</v>
+        <v>10.63682029420486</v>
       </c>
       <c r="H96">
-        <v>10.40345310877337</v>
+        <v>10.08571992452831</v>
       </c>
     </row>
     <row r="97">
@@ -3456,19 +3456,19 @@
         </is>
       </c>
       <c r="D97">
-        <v>64.26832687134372</v>
+        <v>62.45143206242545</v>
       </c>
       <c r="E97">
-        <v>51.71324216274671</v>
+        <v>50.19664428824348</v>
       </c>
       <c r="F97">
-        <v>58.9198871512323</v>
+        <v>57.56707238288941</v>
       </c>
       <c r="G97">
-        <v>62.04492939554888</v>
+        <v>60.02366526207859</v>
       </c>
       <c r="H97">
-        <v>64.42497302793565</v>
+        <v>62.4573617347386</v>
       </c>
     </row>
     <row r="98">
@@ -3488,19 +3488,19 @@
         </is>
       </c>
       <c r="D98">
-        <v>0.4996853518412981</v>
+        <v>0.9804857378339423</v>
       </c>
       <c r="E98">
-        <v>0.5678941031558485</v>
+        <v>1.113113710410332</v>
       </c>
       <c r="F98">
-        <v>0.9297316485821167</v>
+        <v>1.834294681425114</v>
       </c>
       <c r="G98">
-        <v>0.834762794110639</v>
+        <v>1.630716838088399</v>
       </c>
       <c r="H98">
-        <v>0.5996501573550833</v>
+        <v>1.173887820028077</v>
       </c>
     </row>
     <row r="99">
@@ -3520,19 +3520,19 @@
         </is>
       </c>
       <c r="D99">
-        <v>113.9651469409862</v>
+        <v>110.7433004428006</v>
       </c>
       <c r="E99">
-        <v>124.082750963826</v>
+        <v>120.4437674365117</v>
       </c>
       <c r="F99">
-        <v>93.01942042287499</v>
+        <v>90.88367217597546</v>
       </c>
       <c r="G99">
-        <v>86.24050179486858</v>
+        <v>83.43100817744246</v>
       </c>
       <c r="H99">
-        <v>107.9699490734866</v>
+        <v>104.6724251299254</v>
       </c>
     </row>
     <row r="100">
@@ -3555,16 +3555,16 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0.05556189190302307</v>
+        <v>0.05393242440805703</v>
       </c>
       <c r="F100">
-        <v>0.04066604639782482</v>
+        <v>0.03973234419985745</v>
       </c>
       <c r="G100">
-        <v>0.05968332405587022</v>
+        <v>0.0577389949470185</v>
       </c>
       <c r="H100">
-        <v>0.04053484579488476</v>
+        <v>0.03929686591525901</v>
       </c>
     </row>
     <row r="101">
@@ -3584,19 +3584,19 @@
         </is>
       </c>
       <c r="D101">
-        <v>1.082610550366854</v>
+        <v>1.052004658089942</v>
       </c>
       <c r="E101">
-        <v>58.86447542276613</v>
+        <v>57.13815282962913</v>
       </c>
       <c r="F101">
-        <v>7.504412123829253</v>
+        <v>7.332109018041051</v>
       </c>
       <c r="G101">
-        <v>0.9042920756309438</v>
+        <v>0.8748325669094242</v>
       </c>
       <c r="H101">
-        <v>1.210611427047031</v>
+        <v>1.173637989518416</v>
       </c>
     </row>
     <row r="102">
@@ -3616,19 +3616,19 @@
         </is>
       </c>
       <c r="D102">
-        <v>7.583732684140553</v>
+        <v>7.36933711455272</v>
       </c>
       <c r="E102">
-        <v>7.751852820849143</v>
+        <v>7.524513690292157</v>
       </c>
       <c r="F102">
-        <v>6.806115625729369</v>
+        <v>6.649845575348876</v>
       </c>
       <c r="G102">
-        <v>7.982982167834949</v>
+        <v>7.722917152189443</v>
       </c>
       <c r="H102">
-        <v>7.131706130530863</v>
+        <v>6.913895786766956</v>
       </c>
     </row>
     <row r="103">
@@ -3648,19 +3648,19 @@
         </is>
       </c>
       <c r="D103">
-        <v>24.3158950726994</v>
+        <v>23.62847366805898</v>
       </c>
       <c r="E103">
-        <v>18.45366215530077</v>
+        <v>17.91247031292019</v>
       </c>
       <c r="F103">
-        <v>19.56014420471806</v>
+        <v>19.11103859317573</v>
       </c>
       <c r="G103">
-        <v>24.26091823547028</v>
+        <v>23.47055995233346</v>
       </c>
       <c r="H103">
-        <v>20.18801135533118</v>
+        <v>19.57144673352349</v>
       </c>
     </row>
     <row r="104">
@@ -3680,19 +3680,19 @@
         </is>
       </c>
       <c r="D104">
-        <v>3.926703804263143</v>
+        <v>3.815694103132951</v>
       </c>
       <c r="E104">
-        <v>4.724621624724632</v>
+        <v>4.586062315460299</v>
       </c>
       <c r="F104">
-        <v>4.795732976141592</v>
+        <v>4.685621794521352</v>
       </c>
       <c r="G104">
-        <v>5.149170167217255</v>
+        <v>4.981423454028504</v>
       </c>
       <c r="H104">
-        <v>4.780260533803482</v>
+        <v>4.63426598900705</v>
       </c>
     </row>
     <row r="105">
@@ -3712,19 +3712,19 @@
         </is>
       </c>
       <c r="D105">
-        <v>319.8088112400089</v>
+        <v>310.7676708015548</v>
       </c>
       <c r="E105">
-        <v>310.6410834957026</v>
+        <v>301.5308906851202</v>
       </c>
       <c r="F105">
-        <v>251.4295891734768</v>
+        <v>245.6567053836755</v>
       </c>
       <c r="G105">
-        <v>275.5018650658523</v>
+        <v>266.5267232776866</v>
       </c>
       <c r="H105">
-        <v>314.6938068125315</v>
+        <v>305.0827032438111</v>
       </c>
     </row>
     <row r="106">
@@ -3744,19 +3744,19 @@
         </is>
       </c>
       <c r="D106">
-        <v>2.127971784304044</v>
+        <v>2.067813054854522</v>
       </c>
       <c r="E106">
-        <v>1.534591259442529</v>
+        <v>1.48958619410593</v>
       </c>
       <c r="F106">
-        <v>1.710583476185909</v>
+        <v>1.671308068493292</v>
       </c>
       <c r="G106">
-        <v>1.847370742504213</v>
+        <v>1.787188157731798</v>
       </c>
       <c r="H106">
-        <v>1.785492208730623</v>
+        <v>1.730961264149701</v>
       </c>
     </row>
     <row r="107">
@@ -3776,19 +3776,19 @@
         </is>
       </c>
       <c r="D107">
-        <v>48.76810563327459</v>
+        <v>47.38940912319969</v>
       </c>
       <c r="E107">
-        <v>44.33526926620899</v>
+        <v>43.03504571953879</v>
       </c>
       <c r="F107">
-        <v>42.96379273083526</v>
+        <v>41.97733372487836</v>
       </c>
       <c r="G107">
-        <v>47.5398291393816</v>
+        <v>45.9911038448754</v>
       </c>
       <c r="H107">
-        <v>40.85910523593</v>
+        <v>39.6112221074841</v>
       </c>
     </row>
     <row r="108">
@@ -3808,19 +3808,19 @@
         </is>
       </c>
       <c r="D108">
-        <v>2.108583447750752</v>
+        <v>2.048972835387082</v>
       </c>
       <c r="E108">
-        <v>2.491007486395308</v>
+        <v>2.417953535390854</v>
       </c>
       <c r="F108">
-        <v>3.269418708236929</v>
+        <v>3.194352069004458</v>
       </c>
       <c r="G108">
-        <v>3.065296565352204</v>
+        <v>2.965437091478089</v>
       </c>
       <c r="H108">
-        <v>2.32913399033934</v>
+        <v>2.257999612979591</v>
       </c>
     </row>
     <row r="109">
@@ -3840,19 +3840,19 @@
         </is>
       </c>
       <c r="D109">
-        <v>0.6403648837435792</v>
+        <v>0.6222614774511395</v>
       </c>
       <c r="E109">
-        <v>0.4571773207107479</v>
+        <v>0.4437696494090927</v>
       </c>
       <c r="F109">
-        <v>0.6971052722800404</v>
+        <v>0.6810995677034251</v>
       </c>
       <c r="G109">
-        <v>0.8839611152024336</v>
+        <v>0.8551639368520418</v>
       </c>
       <c r="H109">
-        <v>0.5628335268930659</v>
+        <v>0.5456439565811851</v>
       </c>
     </row>
     <row r="110">
@@ -3872,19 +3872,19 @@
         </is>
       </c>
       <c r="D110">
-        <v>0.2900953911680914</v>
+        <v>0.3425751831650017</v>
       </c>
       <c r="E110">
-        <v>0.1123563808704963</v>
+        <v>0.1325379721913915</v>
       </c>
       <c r="F110">
-        <v>0.2545345436885108</v>
+        <v>0.3022237772985198</v>
       </c>
       <c r="G110">
-        <v>0.5172457539481624</v>
+        <v>0.6081109349051783</v>
       </c>
       <c r="H110">
-        <v>0.4830311675542901</v>
+        <v>0.5690811574082076</v>
       </c>
     </row>
     <row r="111">
@@ -3904,19 +3904,19 @@
         </is>
       </c>
       <c r="D111">
-        <v>0.06627744549545062</v>
+        <v>0.06440375198993724</v>
       </c>
       <c r="E111">
-        <v>0.07334231759546131</v>
+        <v>0.07119140231100934</v>
       </c>
       <c r="F111">
-        <v>0.02236651468080196</v>
+        <v>0.02185297412871497</v>
       </c>
       <c r="G111">
-        <v>0.1378696445843222</v>
+        <v>0.1333782063570982</v>
       </c>
       <c r="H111">
-        <v>0.083603826520848</v>
+        <v>0.08105047142443876</v>
       </c>
     </row>
     <row r="112">
@@ -3936,19 +3936,19 @@
         </is>
       </c>
       <c r="D112">
-        <v>1.827024184103368</v>
+        <v>1.775373380084294</v>
       </c>
       <c r="E112">
-        <v>1.340278865208138</v>
+        <v>1.300972413065391</v>
       </c>
       <c r="F112">
-        <v>2.410827220890134</v>
+        <v>2.35547404853982</v>
       </c>
       <c r="G112">
-        <v>2.830591021502306</v>
+        <v>2.738377650256274</v>
       </c>
       <c r="H112">
-        <v>2.278753537113543</v>
+        <v>2.209157835581884</v>
       </c>
     </row>
     <row r="113">
@@ -3968,19 +3968,19 @@
         </is>
       </c>
       <c r="D113">
-        <v>74.6618560197839</v>
+        <v>72.55113141825341</v>
       </c>
       <c r="E113">
-        <v>52.60416282594037</v>
+        <v>51.06143685875445</v>
       </c>
       <c r="F113">
-        <v>62.01615422268436</v>
+        <v>60.59224841830056</v>
       </c>
       <c r="G113">
-        <v>92.05274967825714</v>
+        <v>89.05390798201165</v>
       </c>
       <c r="H113">
-        <v>69.61204923748832</v>
+        <v>67.48601879021318</v>
       </c>
     </row>
     <row r="114">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0.04530784895595481</v>
+        <v>0.04397910249661147</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4032,19 +4032,19 @@
         </is>
       </c>
       <c r="D115">
-        <v>0.7771813763242896</v>
+        <v>1.129763330194012</v>
       </c>
       <c r="E115">
-        <v>1.098921281949886</v>
+        <v>1.595729169697536</v>
       </c>
       <c r="F115">
-        <v>1.457076765478426</v>
+        <v>2.129679997366724</v>
       </c>
       <c r="G115">
-        <v>1.73032900964405</v>
+        <v>2.504174491697809</v>
       </c>
       <c r="H115">
-        <v>1.394280775792633</v>
+        <v>2.022084549626458</v>
       </c>
     </row>
     <row r="116">
@@ -4064,19 +4064,19 @@
         </is>
       </c>
       <c r="D116">
-        <v>2.37308426226595</v>
+        <v>2.305996091667267</v>
       </c>
       <c r="E116">
-        <v>2.897703916686841</v>
+        <v>2.812722750989348</v>
       </c>
       <c r="F116">
-        <v>3.424281027071973</v>
+        <v>3.345658711783264</v>
       </c>
       <c r="G116">
-        <v>4.036715145543665</v>
+        <v>3.905209354172597</v>
       </c>
       <c r="H116">
-        <v>2.642503193266533</v>
+        <v>2.561798167233756</v>
       </c>
     </row>
     <row r="117">
@@ -4096,19 +4096,19 @@
         </is>
       </c>
       <c r="D117">
-        <v>0.01278381175765502</v>
+        <v>0.01242240758935966</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0.008628253886876984</v>
+        <v>0.008430147104132832</v>
       </c>
       <c r="G117">
-        <v>0.02279378629317214</v>
+        <v>0.02205122339320242</v>
       </c>
       <c r="H117">
-        <v>0.01290062491060286</v>
+        <v>0.01250662528483049</v>
       </c>
     </row>
     <row r="118">
@@ -4128,19 +4128,19 @@
         </is>
       </c>
       <c r="D118">
-        <v>0.1034424719787091</v>
+        <v>1.025944720909469</v>
       </c>
       <c r="E118">
-        <v>0.07044244040866851</v>
+        <v>0.6978899985782395</v>
       </c>
       <c r="F118">
-        <v>0.06444649947833811</v>
+        <v>0.6426747439385971</v>
       </c>
       <c r="G118">
-        <v>0.1986276383376062</v>
+        <v>1.96126175120718</v>
       </c>
       <c r="H118">
-        <v>0.1846859064403314</v>
+        <v>1.82743865926582</v>
       </c>
     </row>
     <row r="119">
@@ -4160,19 +4160,19 @@
         </is>
       </c>
       <c r="D119">
-        <v>1.420699579031288</v>
+        <v>1.380535756261456</v>
       </c>
       <c r="E119">
-        <v>0.857530716280218</v>
+        <v>0.8323818529090351</v>
       </c>
       <c r="F119">
-        <v>1.8305913677965</v>
+        <v>1.788560550072771</v>
       </c>
       <c r="G119">
-        <v>2.916943476960605</v>
+        <v>2.821916964934893</v>
       </c>
       <c r="H119">
-        <v>2.020187343687487</v>
+        <v>1.958488545147212</v>
       </c>
     </row>
     <row r="120">
@@ -4192,19 +4192,19 @@
         </is>
       </c>
       <c r="D120">
-        <v>1.020956295082396</v>
+        <v>0.9920933966226144</v>
       </c>
       <c r="E120">
-        <v>0.597357882064081</v>
+        <v>0.579839125622452</v>
       </c>
       <c r="F120">
-        <v>1.172228194405454</v>
+        <v>1.14531355335753</v>
       </c>
       <c r="G120">
-        <v>1.590221409262176</v>
+        <v>1.538416088019457</v>
       </c>
       <c r="H120">
-        <v>0.9118617632995958</v>
+        <v>0.8840124772389735</v>
       </c>
     </row>
     <row r="121">
@@ -4224,19 +4224,19 @@
         </is>
       </c>
       <c r="D121">
-        <v>8.700105721064611</v>
+        <v>11.85342250174327</v>
       </c>
       <c r="E121">
-        <v>6.454937879209721</v>
+        <v>8.784940252610895</v>
       </c>
       <c r="F121">
-        <v>6.504613680957275</v>
+        <v>8.910612800649004</v>
       </c>
       <c r="G121">
-        <v>9.096448046133116</v>
+        <v>12.338486409374</v>
       </c>
       <c r="H121">
-        <v>7.533322791871557</v>
+        <v>10.23976036875095</v>
       </c>
     </row>
     <row r="122">
@@ -4256,19 +4256,19 @@
         </is>
       </c>
       <c r="D122">
-        <v>7.836226687973082</v>
+        <v>7.614692998145014</v>
       </c>
       <c r="E122">
-        <v>10.74419713309709</v>
+        <v>10.42910131133411</v>
       </c>
       <c r="F122">
-        <v>4.67847959685435</v>
+        <v>4.571060581000327</v>
       </c>
       <c r="G122">
-        <v>4.890488749483852</v>
+        <v>4.731169211194865</v>
       </c>
       <c r="H122">
-        <v>5.395741592648363</v>
+        <v>5.230949562572318</v>
       </c>
     </row>
     <row r="123">
@@ -4288,19 +4288,19 @@
         </is>
       </c>
       <c r="D123">
-        <v>5.197145706644736</v>
+        <v>5.050220035551763</v>
       </c>
       <c r="E123">
-        <v>4.867734046722368</v>
+        <v>4.724977669435617</v>
       </c>
       <c r="F123">
-        <v>5.542009870892148</v>
+        <v>5.414763992426677</v>
       </c>
       <c r="G123">
-        <v>5.73232449496258</v>
+        <v>5.545580114463497</v>
       </c>
       <c r="H123">
-        <v>4.24174246374551</v>
+        <v>4.112194867801929</v>
       </c>
     </row>
     <row r="124">
@@ -4320,19 +4320,19 @@
         </is>
       </c>
       <c r="D124">
-        <v>10.71389267976159</v>
+        <v>3.358108778583595</v>
       </c>
       <c r="E124">
-        <v>9.348773490911764</v>
+        <v>2.92704646284562</v>
       </c>
       <c r="F124">
-        <v>12.54443192012798</v>
+        <v>3.953350286954089</v>
       </c>
       <c r="G124">
-        <v>14.01349006833371</v>
+        <v>4.372850073228435</v>
       </c>
       <c r="H124">
-        <v>11.04430342443681</v>
+        <v>3.453582063318288</v>
       </c>
     </row>
     <row r="125">
@@ -4352,19 +4352,19 @@
         </is>
       </c>
       <c r="D125">
-        <v>9.675103529263083</v>
+        <v>9.401583955410555</v>
       </c>
       <c r="E125">
-        <v>15.06423815978889</v>
+        <v>14.62244819229379</v>
       </c>
       <c r="F125">
-        <v>11.41568017048058</v>
+        <v>11.15357341040369</v>
       </c>
       <c r="G125">
-        <v>7.442554656344105</v>
+        <v>7.20009537828842</v>
       </c>
       <c r="H125">
-        <v>9.720625487399424</v>
+        <v>9.423746628363617</v>
       </c>
     </row>
     <row r="126">
@@ -4384,19 +4384,19 @@
         </is>
       </c>
       <c r="D126">
-        <v>3.798799914388439</v>
+        <v>4.187431890967811</v>
       </c>
       <c r="E126">
-        <v>3.265711164831645</v>
+        <v>3.595891823808125</v>
       </c>
       <c r="F126">
-        <v>2.161343377666306</v>
+        <v>2.395476617553973</v>
       </c>
       <c r="G126">
-        <v>3.433315567137392</v>
+        <v>3.76778288034351</v>
       </c>
       <c r="H126">
-        <v>2.629598980984502</v>
+        <v>2.89184386879933</v>
       </c>
     </row>
     <row r="127">
@@ -4416,19 +4416,19 @@
         </is>
       </c>
       <c r="D127">
-        <v>4.824301596564474</v>
+        <v>30.14414710819103</v>
       </c>
       <c r="E127">
-        <v>5.706725914031996</v>
+        <v>35.61911094094928</v>
       </c>
       <c r="F127">
-        <v>2.638559326628183</v>
+        <v>16.5768589921159</v>
       </c>
       <c r="G127">
-        <v>2.175173901226677</v>
+        <v>13.5311074572775</v>
       </c>
       <c r="H127">
-        <v>3.840147769361002</v>
+        <v>23.93869484586434</v>
       </c>
     </row>
     <row r="128">
@@ -4448,19 +4448,19 @@
         </is>
       </c>
       <c r="D128">
-        <v>4.127188681460687</v>
+        <v>4.010511181737014</v>
       </c>
       <c r="E128">
-        <v>4.050484640856356</v>
+        <v>3.93169579412928</v>
       </c>
       <c r="F128">
-        <v>5.369504343372055</v>
+        <v>5.246219233274164</v>
       </c>
       <c r="G128">
-        <v>6.482010761305126</v>
+        <v>6.270843531489011</v>
       </c>
       <c r="H128">
-        <v>5.22026079820717</v>
+        <v>5.060828149387396</v>
       </c>
     </row>
     <row r="129">
@@ -4480,19 +4480,19 @@
         </is>
       </c>
       <c r="D129">
-        <v>2.28192268299359</v>
+        <v>4.847870659242544</v>
       </c>
       <c r="E129">
-        <v>1.809701718388073</v>
+        <v>3.840472045747514</v>
       </c>
       <c r="F129">
-        <v>1.642828383883427</v>
+        <v>3.509208125632975</v>
       </c>
       <c r="G129">
-        <v>3.028930607537017</v>
+        <v>6.406343656720958</v>
       </c>
       <c r="H129">
-        <v>2.149255680173621</v>
+        <v>4.555354339039437</v>
       </c>
     </row>
     <row r="130">
@@ -4512,19 +4512,19 @@
         </is>
       </c>
       <c r="D130">
-        <v>0.9527869683501452</v>
+        <v>0.9258512477382518</v>
       </c>
       <c r="E130">
-        <v>1.202849651870907</v>
+        <v>1.167573595892183</v>
       </c>
       <c r="F130">
-        <v>1.086879142422877</v>
+        <v>1.061924136119156</v>
       </c>
       <c r="G130">
-        <v>1.993941070401812</v>
+        <v>1.928983601530139</v>
       </c>
       <c r="H130">
-        <v>1.069830394372137</v>
+        <v>1.037156568263443</v>
       </c>
     </row>
     <row r="131">
@@ -4544,19 +4544,19 @@
         </is>
       </c>
       <c r="D131">
-        <v>0.6803510221517926</v>
+        <v>0.6611171895539036</v>
       </c>
       <c r="E131">
-        <v>0.4582707193850935</v>
+        <v>0.4448309819039426</v>
       </c>
       <c r="F131">
-        <v>0.5989478482908328</v>
+        <v>0.585195861757741</v>
       </c>
       <c r="G131">
-        <v>1.26582174643338</v>
+        <v>1.224584531396496</v>
       </c>
       <c r="H131">
-        <v>0.6567170133863841</v>
+        <v>0.6366601355757657</v>
       </c>
     </row>
     <row r="132">
@@ -4576,19 +4576,19 @@
         </is>
       </c>
       <c r="D132">
-        <v>7.293368771812026</v>
+        <v>2.399736308027716</v>
       </c>
       <c r="E132">
-        <v>17.00250318723873</v>
+        <v>5.588248686618796</v>
       </c>
       <c r="F132">
-        <v>9.188772394908993</v>
+        <v>3.039902629630062</v>
       </c>
       <c r="G132">
-        <v>7.051176583428858</v>
+        <v>2.309764750497302</v>
       </c>
       <c r="H132">
-        <v>6.820278288118522</v>
+        <v>2.238831593833234</v>
       </c>
     </row>
     <row r="133">
@@ -4608,19 +4608,19 @@
         </is>
       </c>
       <c r="D133">
-        <v>0.6730432325277268</v>
+        <v>0.6540159944637085</v>
       </c>
       <c r="E133">
-        <v>0.0620655465150066</v>
+        <v>0.06024534588576914</v>
       </c>
       <c r="F133">
-        <v>0.6056814140864502</v>
+        <v>0.591774823264512</v>
       </c>
       <c r="G133">
-        <v>1.333388046550041</v>
+        <v>1.289949695330272</v>
       </c>
       <c r="H133">
-        <v>0.7074929391218668</v>
+        <v>0.6858853073069534</v>
       </c>
     </row>
     <row r="134">
@@ -4640,19 +4640,19 @@
         </is>
       </c>
       <c r="D134">
-        <v>3.984884284812792</v>
+        <v>3.872229795055962</v>
       </c>
       <c r="E134">
-        <v>2.130087438116988</v>
+        <v>2.067618214644447</v>
       </c>
       <c r="F134">
-        <v>4.193861452400931</v>
+        <v>4.097569385604715</v>
       </c>
       <c r="G134">
-        <v>5.900867842695199</v>
+        <v>5.708632753655937</v>
       </c>
       <c r="H134">
-        <v>8.076671782768489</v>
+        <v>7.830001122862582</v>
       </c>
     </row>
     <row r="135">
@@ -4672,19 +4672,19 @@
         </is>
       </c>
       <c r="D135">
-        <v>5.099093897151525</v>
+        <v>4.312722218508683</v>
       </c>
       <c r="E135">
-        <v>4.177014742007435</v>
+        <v>3.529002739169843</v>
       </c>
       <c r="F135">
-        <v>3.754430929453613</v>
+        <v>3.192783169644467</v>
       </c>
       <c r="G135">
-        <v>5.667605677840032</v>
+        <v>4.772312921384017</v>
       </c>
       <c r="H135">
-        <v>4.210107787333965</v>
+        <v>3.552512983333425</v>
       </c>
     </row>
     <row r="136">
@@ -4704,19 +4704,19 @@
         </is>
       </c>
       <c r="D136">
-        <v>2.963655023364101</v>
+        <v>5.83331943052938</v>
       </c>
       <c r="E136">
-        <v>4.878501910144646</v>
+        <v>9.59184383706233</v>
       </c>
       <c r="F136">
-        <v>4.399186290514452</v>
+        <v>8.70617299304944</v>
       </c>
       <c r="G136">
-        <v>4.287580445615926</v>
+        <v>8.401777966128572</v>
       </c>
       <c r="H136">
-        <v>3.778331540259031</v>
+        <v>7.419457566418586</v>
       </c>
     </row>
     <row r="137">
@@ -4736,19 +4736,19 @@
         </is>
       </c>
       <c r="D137">
-        <v>6.142664448250408</v>
+        <v>5.969008532618827</v>
       </c>
       <c r="E137">
-        <v>7.0546449381084</v>
+        <v>6.847752871955612</v>
       </c>
       <c r="F137">
-        <v>5.647394846065711</v>
+        <v>5.517729303244633</v>
       </c>
       <c r="G137">
-        <v>8.051560806592189</v>
+        <v>7.789261675376037</v>
       </c>
       <c r="H137">
-        <v>6.533863482407012</v>
+        <v>6.334311926978075</v>
       </c>
     </row>
     <row r="138">
@@ -4768,19 +4768,19 @@
         </is>
       </c>
       <c r="D138">
-        <v>4.159139507504384</v>
+        <v>15.29591276778237</v>
       </c>
       <c r="E138">
-        <v>5.311158349045011</v>
+        <v>19.51141070385782</v>
       </c>
       <c r="F138">
-        <v>4.483844574658599</v>
+        <v>16.58018186411111</v>
       </c>
       <c r="G138">
-        <v>5.663299397842397</v>
+        <v>20.73539157575824</v>
       </c>
       <c r="H138">
-        <v>4.807895911739742</v>
+        <v>17.64050238492761</v>
       </c>
     </row>
     <row r="139">
@@ -4800,30 +4800,30 @@
         </is>
       </c>
       <c r="D139">
-        <v>22.2978064038317</v>
+        <v>21.66743728302843</v>
       </c>
       <c r="E139">
-        <v>25.11189755739855</v>
+        <v>24.37543917908923</v>
       </c>
       <c r="F139">
-        <v>36.05113394786056</v>
+        <v>35.22339124877846</v>
       </c>
       <c r="G139">
-        <v>37.78796714072906</v>
+        <v>36.5569324147263</v>
       </c>
       <c r="H139">
-        <v>24.35025247344792</v>
+        <v>23.60656831640248</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Csgalnact1</t>
+          <t>Tmem260</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036356</t>
+          <t>ENSMUSG00000036339</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4832,30 +4832,30 @@
         </is>
       </c>
       <c r="D140">
-        <v>0.1656221759645064</v>
+        <v>10.03629025573402</v>
       </c>
       <c r="E140">
-        <v>0.1499536974068502</v>
+        <v>6.534555608186801</v>
       </c>
       <c r="F140">
-        <v>0.2032442863335365</v>
+        <v>7.120455004836661</v>
       </c>
       <c r="G140">
-        <v>0.1789742895350265</v>
+        <v>8.795321173480618</v>
       </c>
       <c r="H140">
-        <v>0.2127179886349874</v>
+        <v>10.08519428091952</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Fut7</t>
+          <t>Csgalnact1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036587</t>
+          <t>ENSMUSG00000036356</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4864,30 +4864,30 @@
         </is>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.1609399617790639</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.1455559948213999</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.198577748676606</v>
       </c>
       <c r="G141">
-        <v>0.03582211287495479</v>
+        <v>0.1731437677538795</v>
       </c>
       <c r="H141">
-        <v>0.09123426713427363</v>
+        <v>0.2062213414959522</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mgat4b</t>
+          <t>Fut7</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036620</t>
+          <t>ENSMUSG00000036587</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4896,30 +4896,30 @@
         </is>
       </c>
       <c r="D142">
-        <v>48.76047900209429</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>61.93689273703087</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>48.99413125584622</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>43.34696873058137</v>
+        <v>0.03430682795243954</v>
       </c>
       <c r="H142">
-        <v>52.90573362370569</v>
+        <v>0.08755894646646153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Alg5</t>
+          <t>Mgat4b</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036632</t>
+          <t>ENSMUSG00000036620</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4928,30 +4928,30 @@
         </is>
       </c>
       <c r="D143">
-        <v>24.33644945407042</v>
+        <v>246.9761231453812</v>
       </c>
       <c r="E143">
-        <v>22.1965338885852</v>
+        <v>313.3746992274644</v>
       </c>
       <c r="F143">
-        <v>25.49636705874554</v>
+        <v>249.5157110734567</v>
       </c>
       <c r="G143">
-        <v>34.78105554973092</v>
+        <v>218.5830831266721</v>
       </c>
       <c r="H143">
-        <v>25.90284114613054</v>
+        <v>267.3460235618129</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tmtc3</t>
+          <t>Alg5</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036676</t>
+          <t>ENSMUSG00000036632</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4960,30 +4960,30 @@
         </is>
       </c>
       <c r="D144">
-        <v>4.943207555393358</v>
+        <v>23.64844696772721</v>
       </c>
       <c r="E144">
-        <v>5.261849303077682</v>
+        <v>21.54557458476074</v>
       </c>
       <c r="F144">
-        <v>5.616297894635682</v>
+        <v>24.91096434390953</v>
       </c>
       <c r="G144">
-        <v>6.040745118064086</v>
+        <v>33.64797826538555</v>
       </c>
       <c r="H144">
-        <v>5.148324474168603</v>
+        <v>25.11173918101345</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Gtdc1</t>
+          <t>Tmtc3</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036890</t>
+          <t>ENSMUSG00000036676</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4992,30 +4992,30 @@
         </is>
       </c>
       <c r="D145">
-        <v>1.27004871402815</v>
+        <v>4.803460831244477</v>
       </c>
       <c r="E145">
-        <v>1.136305178640469</v>
+        <v>5.107534680067008</v>
       </c>
       <c r="F145">
-        <v>1.021346481036311</v>
+        <v>5.48734634529251</v>
       </c>
       <c r="G145">
-        <v>1.092109749824521</v>
+        <v>5.84395318735307</v>
       </c>
       <c r="H145">
-        <v>1.254384659036243</v>
+        <v>4.991088841768346</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Galnt6</t>
+          <t>Gtdc1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ENSMUSG00000037280</t>
+          <t>ENSMUSG00000036890</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5024,30 +5024,30 @@
         </is>
       </c>
       <c r="D146">
-        <v>8.065797590867758</v>
+        <v>1.05749378303992</v>
       </c>
       <c r="E146">
-        <v>42.60405117663223</v>
+        <v>0.9451047377391935</v>
       </c>
       <c r="F146">
-        <v>31.16525303939967</v>
+        <v>0.8550615352922</v>
       </c>
       <c r="G146">
-        <v>32.49767366351843</v>
+        <v>0.9053042040803663</v>
       </c>
       <c r="H146">
-        <v>14.71735082810832</v>
+        <v>1.042010655166392</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Uggt1</t>
+          <t>Galnt6</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ENSMUSG00000037470</t>
+          <t>ENSMUSG00000037280</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5056,30 +5056,30 @@
         </is>
       </c>
       <c r="D147">
-        <v>18.04109596457428</v>
+        <v>7.84190331823312</v>
       </c>
       <c r="E147">
-        <v>15.87680722824439</v>
+        <v>41.37638769791185</v>
       </c>
       <c r="F147">
-        <v>15.94267487169935</v>
+        <v>30.46573438087601</v>
       </c>
       <c r="G147">
-        <v>18.96073595224235</v>
+        <v>31.45554735425325</v>
       </c>
       <c r="H147">
-        <v>15.35401442780957</v>
+        <v>14.27538366138788</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A4gnt</t>
+          <t>Uggt1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ENSMUSG00000037953</t>
+          <t>ENSMUSG00000037470</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5088,30 +5088,30 @@
         </is>
       </c>
       <c r="D148">
-        <v>2.390225034487863</v>
+        <v>17.53106598245183</v>
       </c>
       <c r="E148">
-        <v>4.027090455805849</v>
+        <v>15.41118699077263</v>
       </c>
       <c r="F148">
-        <v>3.139294881009014</v>
+        <v>15.57662722537637</v>
       </c>
       <c r="G148">
-        <v>2.431667908794991</v>
+        <v>18.34304396841977</v>
       </c>
       <c r="H148">
-        <v>2.629369152073123</v>
+        <v>14.8850855208317</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Parp11</t>
+          <t>A4gnt</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ENSMUSG00000037997</t>
+          <t>ENSMUSG00000037953</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5120,30 +5120,30 @@
         </is>
       </c>
       <c r="D149">
-        <v>1.258742276543597</v>
+        <v>2.322652286468436</v>
       </c>
       <c r="E149">
-        <v>1.392918437440855</v>
+        <v>3.908987691982097</v>
       </c>
       <c r="F149">
-        <v>1.290486668298123</v>
+        <v>3.067215916120443</v>
       </c>
       <c r="G149">
-        <v>1.590940214317638</v>
+        <v>2.352450425973411</v>
       </c>
       <c r="H149">
-        <v>0.9808214243626465</v>
+        <v>2.549065254462492</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Galnt11</t>
+          <t>Parp11</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038072</t>
+          <t>ENSMUSG00000037997</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5152,30 +5152,30 @@
         </is>
       </c>
       <c r="D150">
-        <v>6.420679473943483</v>
+        <v>1.223157060320428</v>
       </c>
       <c r="E150">
-        <v>4.710986567579392</v>
+        <v>1.35206822087677</v>
       </c>
       <c r="F150">
-        <v>4.741779991104361</v>
+        <v>1.260856784270302</v>
       </c>
       <c r="G150">
-        <v>6.553678009477917</v>
+        <v>1.539111476255983</v>
       </c>
       <c r="H150">
-        <v>6.690632090195654</v>
+        <v>0.9508660325249388</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Chpf2</t>
+          <t>Galnt11</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038181</t>
+          <t>ENSMUSG00000038072</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5184,30 +5184,30 @@
         </is>
       </c>
       <c r="D151">
-        <v>3.505898455925543</v>
+        <v>6.239163947185037</v>
       </c>
       <c r="E151">
-        <v>2.888290967348684</v>
+        <v>4.572827134590852</v>
       </c>
       <c r="F151">
-        <v>4.060705739857909</v>
+        <v>4.632907582986304</v>
       </c>
       <c r="G151">
-        <v>4.758975703361637</v>
+        <v>6.340176045144616</v>
       </c>
       <c r="H151">
-        <v>3.62721929537498</v>
+        <v>6.486292644782348</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Galnt18</t>
+          <t>Chpf2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038296</t>
+          <t>ENSMUSG00000038181</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5216,30 +5216,30 @@
         </is>
       </c>
       <c r="D152">
-        <v>1.060554952589241</v>
+        <v>4.906794335353005</v>
       </c>
       <c r="E152">
-        <v>1.199118410232357</v>
+        <v>4.038006137467251</v>
       </c>
       <c r="F152">
-        <v>0.9959048960163223</v>
+        <v>5.714350446596867</v>
       </c>
       <c r="G152">
-        <v>1.945801525366962</v>
+        <v>6.631057880434235</v>
       </c>
       <c r="H152">
-        <v>1.116778291290215</v>
+        <v>5.064730223341741</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Parp12</t>
+          <t>Galnt18</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038507</t>
+          <t>ENSMUSG00000038296</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5248,30 +5248,30 @@
         </is>
       </c>
       <c r="D153">
-        <v>16.07769083170262</v>
+        <v>1.030572582085192</v>
       </c>
       <c r="E153">
-        <v>18.17782872225448</v>
+        <v>1.163951780638474</v>
       </c>
       <c r="F153">
-        <v>9.028374139547537</v>
+        <v>0.9730386802725995</v>
       </c>
       <c r="G153">
-        <v>6.705309701530149</v>
+        <v>1.882412318990362</v>
       </c>
       <c r="H153">
-        <v>7.50967296328074</v>
+        <v>1.082670623492091</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Gcnt1</t>
+          <t>Parp12</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038843</t>
+          <t>ENSMUSG00000038507</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5280,30 +5280,30 @@
         </is>
       </c>
       <c r="D154">
-        <v>0.4652261177387453</v>
+        <v>15.62316720500248</v>
       </c>
       <c r="E154">
-        <v>6.263607939035023</v>
+        <v>17.6447262662821</v>
       </c>
       <c r="F154">
-        <v>1.430434525970331</v>
+        <v>8.821080499647048</v>
       </c>
       <c r="G154">
-        <v>0.7219785439904364</v>
+        <v>6.48686796687833</v>
       </c>
       <c r="H154">
-        <v>0.9911184498145005</v>
+        <v>7.280319086417484</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>St6galnac5</t>
+          <t>Gcnt1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039037</t>
+          <t>ENSMUSG00000038843</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5312,30 +5312,30 @@
         </is>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>0.4508961768170878</v>
       </c>
       <c r="E155">
-        <v>0.04637118827325532</v>
+        <v>6.064074684237505</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1.393950264190454</v>
       </c>
       <c r="G155">
-        <v>0.03735815900670247</v>
+        <v>0.6966386492383131</v>
       </c>
       <c r="H155">
-        <v>0.08457455738110418</v>
+        <v>0.9583452788817226</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>B3galnt2</t>
+          <t>St6galnac5</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039242</t>
+          <t>ENSMUSG00000039037</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5344,30 +5344,30 @@
         </is>
       </c>
       <c r="D156">
-        <v>5.499727094449746</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>3.747959795459995</v>
+        <v>0.04501125718728543</v>
       </c>
       <c r="F156">
-        <v>5.834640457254006</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>6.364872237091941</v>
+        <v>0.03614112632363933</v>
       </c>
       <c r="H156">
-        <v>4.671098641224935</v>
+        <v>0.08199155507005867</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Pomt1</t>
+          <t>B3galnt2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039254</t>
+          <t>ENSMUSG00000039242</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5376,30 +5376,30 @@
         </is>
       </c>
       <c r="D157">
-        <v>2.563526643975766</v>
+        <v>5.344247310008237</v>
       </c>
       <c r="E157">
-        <v>1.711077777568958</v>
+        <v>3.638043116060362</v>
       </c>
       <c r="F157">
-        <v>2.142172489342854</v>
+        <v>5.700675710202058</v>
       </c>
       <c r="G157">
-        <v>2.442606510873802</v>
+        <v>6.157521078950762</v>
       </c>
       <c r="H157">
-        <v>1.90941627617892</v>
+        <v>4.528438023670214</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Fut11</t>
+          <t>Pomt1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039357</t>
+          <t>ENSMUSG00000039254</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5408,30 +5408,30 @@
         </is>
       </c>
       <c r="D158">
-        <v>2.964850371120165</v>
+        <v>2.491054580695089</v>
       </c>
       <c r="E158">
-        <v>2.711154478494784</v>
+        <v>1.660896879755512</v>
       </c>
       <c r="F158">
-        <v>3.115460189345319</v>
+        <v>2.092987694190708</v>
       </c>
       <c r="G158">
-        <v>2.659020591453732</v>
+        <v>2.363032676545861</v>
       </c>
       <c r="H158">
-        <v>2.705288820218538</v>
+        <v>1.851100550896508</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Alg1</t>
+          <t>Fut11</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039427</t>
+          <t>ENSMUSG00000039357</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5440,30 +5440,30 @@
         </is>
       </c>
       <c r="D159">
-        <v>7.46991286910454</v>
+        <v>2.881032703682031</v>
       </c>
       <c r="E159">
-        <v>4.526712889997283</v>
+        <v>2.631644261235633</v>
       </c>
       <c r="F159">
-        <v>9.31516422268113</v>
+        <v>3.043928474705188</v>
       </c>
       <c r="G159">
-        <v>8.921616332374153</v>
+        <v>2.572396543299848</v>
       </c>
       <c r="H159">
-        <v>6.748456795655998</v>
+        <v>2.62266625036952</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Tmem246</t>
+          <t>Alg1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039611</t>
+          <t>ENSMUSG00000039427</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5472,30 +5472,30 @@
         </is>
       </c>
       <c r="D160">
-        <v>17.04174061779452</v>
+        <v>7.25873503741589</v>
       </c>
       <c r="E160">
-        <v>17.5175696373199</v>
+        <v>4.393957664056298</v>
       </c>
       <c r="F160">
-        <v>15.0143741641805</v>
+        <v>9.101285813551849</v>
       </c>
       <c r="G160">
-        <v>16.29073202774375</v>
+        <v>8.630973031126326</v>
       </c>
       <c r="H160">
-        <v>15.89462300210032</v>
+        <v>6.542351318560534</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Alg2</t>
+          <t>Tmem246</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039740</t>
+          <t>ENSMUSG00000039611</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5504,30 +5504,30 @@
         </is>
       </c>
       <c r="D161">
-        <v>3.871400296293389</v>
+        <v>16.55996286550627</v>
       </c>
       <c r="E161">
-        <v>2.696574393340177</v>
+        <v>17.00383064577084</v>
       </c>
       <c r="F161">
-        <v>3.554669235874214</v>
+        <v>14.66964052518703</v>
       </c>
       <c r="G161">
-        <v>4.344898576511399</v>
+        <v>15.76002190080118</v>
       </c>
       <c r="H161">
-        <v>3.490317234998936</v>
+        <v>15.40918329991401</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Galnt12</t>
+          <t>Alg2</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039774</t>
+          <t>ENSMUSG00000039740</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5536,30 +5536,30 @@
         </is>
       </c>
       <c r="D162">
-        <v>73.48349551784149</v>
+        <v>14.03069529192876</v>
       </c>
       <c r="E162">
-        <v>82.92445292305787</v>
+        <v>9.762274850482397</v>
       </c>
       <c r="F162">
-        <v>74.88533953348258</v>
+        <v>12.95320203040357</v>
       </c>
       <c r="G162">
-        <v>64.92523110817584</v>
+        <v>15.67694975100737</v>
       </c>
       <c r="H162">
-        <v>72.37440024584654</v>
+        <v>12.62001868741296</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Alg14</t>
+          <t>Galnt12</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039887</t>
+          <t>ENSMUSG00000039774</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5568,30 +5568,30 @@
         </is>
       </c>
       <c r="D163">
-        <v>8.546385556191249</v>
+        <v>71.40608370323477</v>
       </c>
       <c r="E163">
-        <v>7.147188700689355</v>
+        <v>80.49252168479467</v>
       </c>
       <c r="F163">
-        <v>9.951353953240019</v>
+        <v>73.16595414170067</v>
       </c>
       <c r="G163">
-        <v>9.848719143060375</v>
+        <v>62.81013415706801</v>
       </c>
       <c r="H163">
-        <v>10.99456466831673</v>
+        <v>70.16400448517868</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sec1</t>
+          <t>Alg14</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040364</t>
+          <t>ENSMUSG00000039887</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5600,30 +5600,30 @@
         </is>
       </c>
       <c r="D164">
-        <v>0.192518919505634</v>
+        <v>8.304775352410113</v>
       </c>
       <c r="E164">
-        <v>0.5059713168774038</v>
+        <v>6.937582597130304</v>
       </c>
       <c r="F164">
-        <v>0.03248448402971765</v>
+        <v>9.722868475010976</v>
       </c>
       <c r="G164">
-        <v>0.1144216657700218</v>
+        <v>9.527873218044006</v>
       </c>
       <c r="H164">
-        <v>0.02428475966146724</v>
+        <v>10.65877827076892</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Gyltl1b</t>
+          <t>Sec1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040434</t>
+          <t>ENSMUSG00000040364</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5632,30 +5632,30 @@
         </is>
       </c>
       <c r="D165">
-        <v>0.2428139951024536</v>
+        <v>0.1870763221564209</v>
       </c>
       <c r="E165">
-        <v>0.3493059111737212</v>
+        <v>0.4911326606330142</v>
       </c>
       <c r="F165">
-        <v>0.4916516693332112</v>
+        <v>0.03173863246987667</v>
       </c>
       <c r="G165">
-        <v>1.010198234244635</v>
+        <v>0.1106941023516087</v>
       </c>
       <c r="H165">
-        <v>0.4165556382176992</v>
+        <v>0.02354307572872023</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>St8sia4</t>
+          <t>Gyltl1b</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040710</t>
+          <t>ENSMUSG00000040434</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5664,30 +5664,30 @@
         </is>
       </c>
       <c r="D166">
-        <v>0.8371001218912416</v>
+        <v>0.2426994566469764</v>
       </c>
       <c r="E166">
-        <v>0.5362969876419141</v>
+        <v>0.3487614985532715</v>
       </c>
       <c r="F166">
-        <v>1.040769118198876</v>
+        <v>0.4941052143659177</v>
       </c>
       <c r="G166">
-        <v>1.099785387485625</v>
+        <v>1.005246347028782</v>
       </c>
       <c r="H166">
-        <v>0.9225550413806483</v>
+        <v>0.4153862233852747</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>B4galnt3</t>
+          <t>St8sia4</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ENSMUSG00000041372</t>
+          <t>ENSMUSG00000040710</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5696,30 +5696,30 @@
         </is>
       </c>
       <c r="D167">
-        <v>31.95249256112218</v>
+        <v>0.8134349210053725</v>
       </c>
       <c r="E167">
-        <v>28.46188058496389</v>
+        <v>0.5205689683272379</v>
       </c>
       <c r="F167">
-        <v>43.54587048094213</v>
+        <v>1.016872809132283</v>
       </c>
       <c r="G167">
-        <v>124.0772968944977</v>
+        <v>1.063957209745787</v>
       </c>
       <c r="H167">
-        <v>42.15079382471587</v>
+        <v>0.8943791705544498</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Tmtc4</t>
+          <t>B4galnt3</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ENSMUSG00000041594</t>
+          <t>ENSMUSG00000041372</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5728,30 +5728,30 @@
         </is>
       </c>
       <c r="D168">
-        <v>2.53739203254458</v>
+        <v>31.0491810748512</v>
       </c>
       <c r="E168">
-        <v>1.884732241405497</v>
+        <v>27.62717701979821</v>
       </c>
       <c r="F168">
-        <v>2.205236205364011</v>
+        <v>42.54604682996059</v>
       </c>
       <c r="G168">
-        <v>2.892195178838564</v>
+        <v>120.0351778618216</v>
       </c>
       <c r="H168">
-        <v>2.595654071591415</v>
+        <v>40.86346107083533</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Alg13</t>
+          <t>Tmtc4</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ENSMUSG00000041718</t>
+          <t>ENSMUSG00000041594</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5760,30 +5760,30 @@
         </is>
       </c>
       <c r="D169">
-        <v>3.701932075447684</v>
+        <v>2.465658806606557</v>
       </c>
       <c r="E169">
-        <v>6.06894974467755</v>
+        <v>1.829458566969699</v>
       </c>
       <c r="F169">
-        <v>7.588240429916515</v>
+        <v>2.154603452136844</v>
       </c>
       <c r="G169">
-        <v>7.985931999582879</v>
+        <v>2.797974902678471</v>
       </c>
       <c r="H169">
-        <v>7.471517581019268</v>
+        <v>2.516379870540813</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Csgalnact2</t>
+          <t>Alg13</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042042</t>
+          <t>ENSMUSG00000041718</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5792,30 +5792,30 @@
         </is>
       </c>
       <c r="D170">
-        <v>2.416234703244997</v>
+        <v>0.8682390428175193</v>
       </c>
       <c r="E170">
-        <v>2.566124687521778</v>
+        <v>1.421843893424451</v>
       </c>
       <c r="F170">
-        <v>3.108377366398937</v>
+        <v>1.789446743829775</v>
       </c>
       <c r="G170">
-        <v>2.929957246456286</v>
+        <v>1.864692750079364</v>
       </c>
       <c r="H170">
-        <v>3.338361765994891</v>
+        <v>1.748250536470821</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Uggt2</t>
+          <t>Csgalnact2</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042104</t>
+          <t>ENSMUSG00000042042</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5824,30 +5824,30 @@
         </is>
       </c>
       <c r="D171">
-        <v>0.2185661180029448</v>
+        <v>2.347926650069095</v>
       </c>
       <c r="E171">
-        <v>0.1511651656376771</v>
+        <v>2.490867769099259</v>
       </c>
       <c r="F171">
-        <v>0.3687953156986352</v>
+        <v>3.037008275075765</v>
       </c>
       <c r="G171">
-        <v>0.519610215286965</v>
+        <v>2.83450677931</v>
       </c>
       <c r="H171">
-        <v>0.3997709527060172</v>
+        <v>3.236404434810591</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Mgat3</t>
+          <t>Uggt2</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042428</t>
+          <t>ENSMUSG00000042104</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5856,30 +5856,30 @@
         </is>
       </c>
       <c r="D172">
-        <v>46.62903148650435</v>
+        <v>0.3398507266273124</v>
       </c>
       <c r="E172">
-        <v>44.67072250547022</v>
+        <v>0.2347927047867696</v>
       </c>
       <c r="F172">
-        <v>32.10722531776094</v>
+        <v>0.5765773660028405</v>
       </c>
       <c r="G172">
-        <v>43.15861981211676</v>
+        <v>0.8043662754091861</v>
       </c>
       <c r="H172">
-        <v>43.89584054147525</v>
+        <v>0.6201554738070072</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>C1galt1</t>
+          <t>Mgat3</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042460</t>
+          <t>ENSMUSG00000042428</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5888,30 +5888,30 @@
         </is>
       </c>
       <c r="D173">
-        <v>192.0502238735016</v>
+        <v>45.31080757471162</v>
       </c>
       <c r="E173">
-        <v>185.9700572694778</v>
+        <v>43.36066109815966</v>
       </c>
       <c r="F173">
-        <v>185.0523146564587</v>
+        <v>31.37003570860754</v>
       </c>
       <c r="G173">
-        <v>181.230234177803</v>
+        <v>41.7526230429018</v>
       </c>
       <c r="H173">
-        <v>205.1421596673385</v>
+        <v>42.55521209392693</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Dpy19l1</t>
+          <t>C1galt1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ENSMUSG00000043067</t>
+          <t>ENSMUSG00000042460</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5920,30 +5920,30 @@
         </is>
       </c>
       <c r="D174">
-        <v>0.5502829069543281</v>
+        <v>186.6208767628186</v>
       </c>
       <c r="E174">
-        <v>0.7888547959152444</v>
+        <v>180.5161003760283</v>
       </c>
       <c r="F174">
-        <v>0.5402264814076322</v>
+        <v>180.8034690410431</v>
       </c>
       <c r="G174">
-        <v>0.9068344858191105</v>
+        <v>175.3262195256356</v>
       </c>
       <c r="H174">
-        <v>0.6562768292419767</v>
+        <v>198.8768868841079</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Pigv</t>
+          <t>Dpy19l1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ENSMUSG00000043257</t>
+          <t>ENSMUSG00000043067</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5952,30 +5952,30 @@
         </is>
       </c>
       <c r="D175">
-        <v>2.029165862062525</v>
+        <v>0.5347261590856113</v>
       </c>
       <c r="E175">
-        <v>1.403416030113453</v>
+        <v>0.7657199960701365</v>
       </c>
       <c r="F175">
-        <v>1.268854232817981</v>
+        <v>0.5278227515698217</v>
       </c>
       <c r="G175">
-        <v>1.791285699605367</v>
+        <v>0.8772921519162914</v>
       </c>
       <c r="H175">
-        <v>1.897140804898165</v>
+        <v>0.6362333951512844</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>B3galnt1</t>
+          <t>Pigv</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ENSMUSG00000043300</t>
+          <t>ENSMUSG00000043257</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5984,30 +5984,30 @@
         </is>
       </c>
       <c r="D176">
-        <v>0.4683867597834311</v>
+        <v>1.971800420939466</v>
       </c>
       <c r="E176">
-        <v>0.4859199777080953</v>
+        <v>1.362257949913889</v>
       </c>
       <c r="F176">
-        <v>0.3556474353608585</v>
+        <v>1.239721034707389</v>
       </c>
       <c r="G176">
-        <v>0.3479761457774209</v>
+        <v>1.732930221201513</v>
       </c>
       <c r="H176">
-        <v>0.6499166892832706</v>
+        <v>1.839199986345025</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Dpy19l3</t>
+          <t>B3galnt1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ENSMUSG00000043671</t>
+          <t>ENSMUSG00000043300</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6016,30 +6016,30 @@
         </is>
       </c>
       <c r="D177">
-        <v>0.3188639692117968</v>
+        <v>0.4551452532148819</v>
       </c>
       <c r="E177">
-        <v>0.1805296504740143</v>
+        <v>0.4716693684917651</v>
       </c>
       <c r="F177">
-        <v>0.4604551856932823</v>
+        <v>0.3474816847774516</v>
       </c>
       <c r="G177">
-        <v>0.5288750614313835</v>
+        <v>0.3366399784287706</v>
       </c>
       <c r="H177">
-        <v>0.5537568266647684</v>
+        <v>0.63006750103578</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wdfy3</t>
+          <t>Dpy19l3</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ENSMUSG00000043940</t>
+          <t>ENSMUSG00000043671</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6048,30 +6048,30 @@
         </is>
       </c>
       <c r="D178">
-        <v>9.786531827196294</v>
+        <v>0.3098495398868861</v>
       </c>
       <c r="E178">
-        <v>10.13014814000855</v>
+        <v>0.1752352447716595</v>
       </c>
       <c r="F178">
-        <v>7.809559895118887</v>
+        <v>0.4498830239753365</v>
       </c>
       <c r="G178">
-        <v>9.378622656849155</v>
+        <v>0.5116456729354585</v>
       </c>
       <c r="H178">
-        <v>8.415339546034998</v>
+        <v>0.536844469008707</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Mgat2</t>
+          <t>Wdfy3</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ENSMUSG00000043998</t>
+          <t>ENSMUSG00000043940</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6080,30 +6080,30 @@
         </is>
       </c>
       <c r="D179">
-        <v>46.03633519271945</v>
+        <v>9.509862124719961</v>
       </c>
       <c r="E179">
-        <v>46.5454084109874</v>
+        <v>9.833060576069125</v>
       </c>
       <c r="F179">
-        <v>51.87282471133219</v>
+        <v>7.630250523170196</v>
       </c>
       <c r="G179">
-        <v>56.99018597922276</v>
+        <v>9.073091265608648</v>
       </c>
       <c r="H179">
-        <v>49.18436781716372</v>
+        <v>8.158325590907902</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lacc1</t>
+          <t>Mgat2</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ENSMUSG00000044350</t>
+          <t>ENSMUSG00000043998</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6112,30 +6112,30 @@
         </is>
       </c>
       <c r="D180">
-        <v>0.5829920307942708</v>
+        <v>44.73486707451691</v>
       </c>
       <c r="E180">
-        <v>0.3494488350326302</v>
+        <v>45.1803679588372</v>
       </c>
       <c r="F180">
-        <v>0.2951117016824145</v>
+        <v>50.68181219012635</v>
       </c>
       <c r="G180">
-        <v>0.7507400251453292</v>
+        <v>55.1335923783947</v>
       </c>
       <c r="H180">
-        <v>0.1961063898030759</v>
+        <v>47.68222178562645</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Dpy19l4</t>
+          <t>Lacc1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ENSMUSG00000045205</t>
+          <t>ENSMUSG00000044350</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6144,30 +6144,30 @@
         </is>
       </c>
       <c r="D181">
-        <v>2.294203981413314</v>
+        <v>0.5665105811291616</v>
       </c>
       <c r="E181">
-        <v>2.198309461484512</v>
+        <v>0.3392005245749289</v>
       </c>
       <c r="F181">
-        <v>2.752783465724714</v>
+        <v>0.2883358660919279</v>
       </c>
       <c r="G181">
-        <v>2.988287657093135</v>
+        <v>0.7262828470782413</v>
       </c>
       <c r="H181">
-        <v>3.069149203635554</v>
+        <v>0.1901170796162122</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Pigz</t>
+          <t>Dpy19l4</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ENSMUSG00000045625</t>
+          <t>ENSMUSG00000045205</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6176,30 +6176,30 @@
         </is>
       </c>
       <c r="D182">
-        <v>0.0815494804980081</v>
+        <v>2.528888391088583</v>
       </c>
       <c r="E182">
-        <v>0.06016152104957369</v>
+        <v>2.420549527735905</v>
       </c>
       <c r="F182">
-        <v>0.07338756602684381</v>
+        <v>3.050960003751948</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>3.27937320471136</v>
       </c>
       <c r="H182">
-        <v>0.02743154857364454</v>
+        <v>3.375200817378649</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Pofut1</t>
+          <t>Pigz</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ENSMUSG00000046020</t>
+          <t>ENSMUSG00000045625</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6208,30 +6208,30 @@
         </is>
       </c>
       <c r="D183">
-        <v>3.869522849630485</v>
+        <v>0.07924403962223391</v>
       </c>
       <c r="E183">
-        <v>2.827290681724716</v>
+        <v>0.05839715990850424</v>
       </c>
       <c r="F183">
-        <v>3.720749597560981</v>
+        <v>0.07170256987471221</v>
       </c>
       <c r="G183">
-        <v>3.969537882955929</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>3.369965742272233</v>
+        <v>0.02659375816060111</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Fut10</t>
+          <t>Pofut1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ENSMUSG00000046152</t>
+          <t>ENSMUSG00000046020</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6240,30 +6240,30 @@
         </is>
       </c>
       <c r="D184">
-        <v>0.4476382416780388</v>
+        <v>3.760129680074999</v>
       </c>
       <c r="E184">
-        <v>0.1238386069484156</v>
+        <v>2.744374529900157</v>
       </c>
       <c r="F184">
-        <v>0.3273043943817389</v>
+        <v>3.63532029264791</v>
       </c>
       <c r="G184">
-        <v>0.5764400318740763</v>
+        <v>3.840220553926201</v>
       </c>
       <c r="H184">
-        <v>0.2446863107454967</v>
+        <v>3.267043190029847</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>B3gntl1</t>
+          <t>Fut10</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ENSMUSG00000046605</t>
+          <t>ENSMUSG00000046152</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6272,30 +6272,30 @@
         </is>
       </c>
       <c r="D185">
-        <v>2.433769710991629</v>
+        <v>0.4349833051459852</v>
       </c>
       <c r="E185">
-        <v>1.810182540612576</v>
+        <v>0.1202067834497392</v>
       </c>
       <c r="F185">
-        <v>2.692850205017252</v>
+        <v>0.3197894068304791</v>
       </c>
       <c r="G185">
-        <v>3.130101556452703</v>
+        <v>0.5576610990446818</v>
       </c>
       <c r="H185">
-        <v>2.979420130563264</v>
+        <v>0.2372133150159556</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Xxylt1</t>
+          <t>B3gntl1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047434</t>
+          <t>ENSMUSG00000046605</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6304,30 +6304,30 @@
         </is>
       </c>
       <c r="D186">
-        <v>3.279452158493717</v>
+        <v>1.228725318276593</v>
       </c>
       <c r="E186">
-        <v>1.869498621969009</v>
+        <v>0.9129042051059888</v>
       </c>
       <c r="F186">
-        <v>4.239034848345337</v>
+        <v>1.36695541730422</v>
       </c>
       <c r="G186">
-        <v>4.087222728126329</v>
+        <v>1.573274714830101</v>
       </c>
       <c r="H186">
-        <v>3.790788380995882</v>
+        <v>1.500690230057161</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A4galt</t>
+          <t>Xxylt1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047878</t>
+          <t>ENSMUSG00000047434</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6336,30 +6336,30 @@
         </is>
       </c>
       <c r="D187">
-        <v>11.82811162349653</v>
+        <v>3.186740555548288</v>
       </c>
       <c r="E187">
-        <v>11.57867251096623</v>
+        <v>1.814671704957269</v>
       </c>
       <c r="F187">
-        <v>7.944836673837108</v>
+        <v>4.141705589522379</v>
       </c>
       <c r="G187">
-        <v>7.942455534224292</v>
+        <v>3.95407152969078</v>
       </c>
       <c r="H187">
-        <v>12.33789075501967</v>
+        <v>3.675013431034577</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>C1galt1c1</t>
+          <t>A4galt</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ENSMUSG00000048970</t>
+          <t>ENSMUSG00000047878</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6368,30 +6368,30 @@
         </is>
       </c>
       <c r="D188">
-        <v>34.21138592486484</v>
+        <v>11.49372553233443</v>
       </c>
       <c r="E188">
-        <v>32.37212976128365</v>
+        <v>11.23910397135626</v>
       </c>
       <c r="F188">
-        <v>38.71460004894369</v>
+        <v>7.762421314539966</v>
       </c>
       <c r="G188">
-        <v>34.48119403276187</v>
+        <v>7.683710772010704</v>
       </c>
       <c r="H188">
-        <v>41.51148660674882</v>
+        <v>11.96107766464737</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Fut4</t>
+          <t>C1galt1c1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ENSMUSG00000049307</t>
+          <t>ENSMUSG00000048970</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6400,30 +6400,30 @@
         </is>
       </c>
       <c r="D189">
-        <v>50.31050974260847</v>
+        <v>33.24421449659319</v>
       </c>
       <c r="E189">
-        <v>38.28105169361275</v>
+        <v>31.42275004468037</v>
       </c>
       <c r="F189">
-        <v>42.366177186202</v>
+        <v>37.82570352810905</v>
       </c>
       <c r="G189">
-        <v>34.07138532241163</v>
+        <v>33.35788546497661</v>
       </c>
       <c r="H189">
-        <v>49.23322100912999</v>
+        <v>40.24367901590327</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Glt1d1</t>
+          <t>Fut4</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ENSMUSG00000049971</t>
+          <t>ENSMUSG00000049307</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6432,30 +6432,30 @@
         </is>
       </c>
       <c r="D190">
-        <v>1.870528434881629</v>
+        <v>48.88820876738057</v>
       </c>
       <c r="E190">
-        <v>0.3293051678502981</v>
+        <v>37.15838060968476</v>
       </c>
       <c r="F190">
-        <v>1.922423158176871</v>
+        <v>41.39343957676605</v>
       </c>
       <c r="G190">
-        <v>2.956190045309105</v>
+        <v>32.96142726780906</v>
       </c>
       <c r="H190">
-        <v>1.95197124587197</v>
+        <v>47.72958294604496</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Pigm</t>
+          <t>Glt1d1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050229</t>
+          <t>ENSMUSG00000049971</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6464,30 +6464,30 @@
         </is>
       </c>
       <c r="D191">
-        <v>4.574025508218697</v>
+        <v>2.963625309024398</v>
       </c>
       <c r="E191">
-        <v>4.061452200228329</v>
+        <v>0.5211767546300132</v>
       </c>
       <c r="F191">
-        <v>4.052579142533986</v>
+        <v>3.062490847818707</v>
       </c>
       <c r="G191">
-        <v>4.278641721281005</v>
+        <v>4.662964829052246</v>
       </c>
       <c r="H191">
-        <v>4.306513454073066</v>
+        <v>3.085434834717167</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>4933406M09Rik</t>
+          <t>Pigm</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050526</t>
+          <t>ENSMUSG00000050229</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6496,30 +6496,30 @@
         </is>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>4.444715728326981</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>3.942341707119467</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>3.959530951524617</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>4.139254584645545</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>4.174987679077943</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>B3galt6</t>
+          <t>4933406M09Rik</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050796</t>
+          <t>ENSMUSG00000050526</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6528,30 +6528,30 @@
         </is>
       </c>
       <c r="D193">
-        <v>0.8390580970837768</v>
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>0.37139913874071</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.604064488200855</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>1.130354171025976</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>0.7150122736255992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>B3gnt2</t>
+          <t>B3galt6</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051650</t>
+          <t>ENSMUSG00000050796</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6560,30 +6560,30 @@
         </is>
       </c>
       <c r="D194">
-        <v>25.09793389039388</v>
+        <v>0.8153375433493664</v>
       </c>
       <c r="E194">
-        <v>16.05799320030036</v>
+        <v>0.360507090188932</v>
       </c>
       <c r="F194">
-        <v>25.53244239891962</v>
+        <v>0.5901950223858221</v>
       </c>
       <c r="G194">
-        <v>23.37854064468707</v>
+        <v>1.09353014098401</v>
       </c>
       <c r="H194">
-        <v>26.0180120506798</v>
+        <v>0.6931749928594871</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>B3glct</t>
+          <t>B3gnt2</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051950</t>
+          <t>ENSMUSG00000051650</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6592,30 +6592,30 @@
         </is>
       </c>
       <c r="D195">
-        <v>1.493943655862853</v>
+        <v>20.75846481173861</v>
       </c>
       <c r="E195">
-        <v>1.020665875276925</v>
+        <v>13.26710118494442</v>
       </c>
       <c r="F195">
-        <v>1.508090394029093</v>
+        <v>21.2332489451557</v>
       </c>
       <c r="G195">
-        <v>1.405214480326728</v>
+        <v>19.25065310207908</v>
       </c>
       <c r="H195">
-        <v>1.061871043516852</v>
+        <v>21.4691748903208</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>B4galt3</t>
+          <t>B3glct</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052423</t>
+          <t>ENSMUSG00000051950</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6624,30 +6624,30 @@
         </is>
       </c>
       <c r="D196">
-        <v>7.042152736338501</v>
+        <v>1.451709189753484</v>
       </c>
       <c r="E196">
-        <v>8.121624676464073</v>
+        <v>0.9907327356731184</v>
       </c>
       <c r="F196">
-        <v>9.626332985142755</v>
+        <v>1.473464276164983</v>
       </c>
       <c r="G196">
-        <v>10.84327109391587</v>
+        <v>1.359436208732445</v>
       </c>
       <c r="H196">
-        <v>7.796161432461621</v>
+        <v>1.0294403049547</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>St6galnac3</t>
+          <t>B4galt3</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052544</t>
+          <t>ENSMUSG00000052423</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6656,30 +6656,30 @@
         </is>
       </c>
       <c r="D197">
-        <v>0.1293420954303919</v>
+        <v>6.843067878008883</v>
       </c>
       <c r="E197">
-        <v>0.2862587406803245</v>
+        <v>7.883441220801501</v>
       </c>
       <c r="F197">
-        <v>0.1745952551226872</v>
+        <v>9.405310066448738</v>
       </c>
       <c r="G197">
-        <v>0.6918584545456955</v>
+        <v>10.49002522571766</v>
       </c>
       <c r="H197">
-        <v>0.3263099242093664</v>
+        <v>7.558057874832699</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Parp4</t>
+          <t>St6galnac3</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054509</t>
+          <t>ENSMUSG00000052544</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6688,30 +6688,30 @@
         </is>
       </c>
       <c r="D198">
-        <v>11.76763983122408</v>
+        <v>0.1256855356099919</v>
       </c>
       <c r="E198">
-        <v>16.14894600723832</v>
+        <v>0.2778636105450398</v>
       </c>
       <c r="F198">
-        <v>12.33393695406155</v>
+        <v>0.1705865061071585</v>
       </c>
       <c r="G198">
-        <v>13.65648646962344</v>
+        <v>0.669319486523085</v>
       </c>
       <c r="H198">
-        <v>13.90126257863354</v>
+        <v>0.3163440513221831</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Ugt1a6a</t>
+          <t>Parp4</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054545</t>
+          <t>ENSMUSG00000054509</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6720,30 +6720,30 @@
         </is>
       </c>
       <c r="D199">
-        <v>48.80496979971209</v>
+        <v>11.43496330511236</v>
       </c>
       <c r="E199">
-        <v>28.88900461906841</v>
+        <v>15.6753447367365</v>
       </c>
       <c r="F199">
-        <v>41.67947180368531</v>
+        <v>12.05074679756249</v>
       </c>
       <c r="G199">
-        <v>40.90853659315091</v>
+        <v>13.21159328400476</v>
       </c>
       <c r="H199">
-        <v>50.3618525251809</v>
+        <v>13.47670235060587</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Fut9</t>
+          <t>Ugt1a6a</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ENSMUSG00000055373</t>
+          <t>ENSMUSG00000054545</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6752,30 +6752,30 @@
         </is>
       </c>
       <c r="D200">
-        <v>0.4501284000193333</v>
+        <v>46.76454004935326</v>
       </c>
       <c r="E200">
-        <v>0.416896434476047</v>
+        <v>27.65111877475241</v>
       </c>
       <c r="F200">
-        <v>1.822846983679125</v>
+        <v>40.15518721164684</v>
       </c>
       <c r="G200">
-        <v>2.407763212341819</v>
+        <v>39.02450219942999</v>
       </c>
       <c r="H200">
-        <v>2.216895948252268</v>
+        <v>48.14357071594312</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Epm2a</t>
+          <t>Fut9</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ENSMUSG00000055493</t>
+          <t>ENSMUSG00000055373</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6784,30 +6784,30 @@
         </is>
       </c>
       <c r="D201">
-        <v>0.1264302259257223</v>
+        <v>0.4374030655792598</v>
       </c>
       <c r="E201">
-        <v>0.1199203790437502</v>
+        <v>0.4046700835459593</v>
       </c>
       <c r="F201">
-        <v>0.4388518399220084</v>
+        <v>1.780993978875825</v>
       </c>
       <c r="G201">
-        <v>0.3005700861245066</v>
+        <v>2.329324483014409</v>
       </c>
       <c r="H201">
-        <v>0.3645299792201988</v>
+        <v>2.149189447207517</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>B4galnt4</t>
+          <t>Epm2a</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ENSMUSG00000055629</t>
+          <t>ENSMUSG00000055493</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6816,30 +6816,30 @@
         </is>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>0.1228559859795875</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.1164034656892363</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>0.4287756962145858</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>0.2907782862047354</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>0.3533968227730624</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Fut2</t>
+          <t>B4galnt4</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENSMUSG00000055978</t>
+          <t>ENSMUSG00000055629</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6848,30 +6848,30 @@
         </is>
       </c>
       <c r="D203">
-        <v>69.43882759523375</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>123.2065113572428</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>82.82451540732603</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>72.34303827646498</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>63.33993396683399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>St3gal5</t>
+          <t>Fut2</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ENSMUSG00000056091</t>
+          <t>ENSMUSG00000055978</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6880,30 +6880,30 @@
         </is>
       </c>
       <c r="D204">
-        <v>9.018260176383796</v>
+        <v>67.47576038099442</v>
       </c>
       <c r="E204">
-        <v>8.903052516278633</v>
+        <v>119.5932253702358</v>
       </c>
       <c r="F204">
-        <v>11.92505696458871</v>
+        <v>80.92284462957521</v>
       </c>
       <c r="G204">
-        <v>20.18952049908103</v>
+        <v>69.9862882567772</v>
       </c>
       <c r="H204">
-        <v>17.32575636023043</v>
+        <v>61.40546098957008</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>B4galt6</t>
+          <t>St3gal5</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ENSMUSG00000056124</t>
+          <t>ENSMUSG00000056091</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6912,30 +6912,30 @@
         </is>
       </c>
       <c r="D205">
-        <v>4.354472673534135</v>
+        <v>8.763309862635206</v>
       </c>
       <c r="E205">
-        <v>6.028955073279904</v>
+        <v>8.641952071632645</v>
       </c>
       <c r="F205">
-        <v>7.188797299377462</v>
+        <v>11.65125479090806</v>
       </c>
       <c r="G205">
-        <v>7.38744729977718</v>
+        <v>19.53179787687295</v>
       </c>
       <c r="H205">
-        <v>5.291681744063835</v>
+        <v>16.79660823217785</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>St8sia3</t>
+          <t>B4galt6</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ENSMUSG00000056812</t>
+          <t>ENSMUSG00000056124</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6944,30 +6944,30 @@
         </is>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>4.231369752059945</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>5.852143485624342</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>7.023740785805747</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>7.146783277585339</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>5.13006781905513</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>St6galnac2</t>
+          <t>St8sia3</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ENSMUSG00000057286</t>
+          <t>ENSMUSG00000056812</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6976,30 +6976,30 @@
         </is>
       </c>
       <c r="D207">
-        <v>12.58087093921727</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>10.42341702168151</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>11.5930195024409</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>14.37348758546155</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>12.3340314476063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Chsy3</t>
+          <t>St6galnac2</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ENSMUSG00000058152</t>
+          <t>ENSMUSG00000057286</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7008,30 +7008,30 @@
         </is>
       </c>
       <c r="D208">
-        <v>0.3443385774968776</v>
+        <v>12.22520400009042</v>
       </c>
       <c r="E208">
-        <v>0.3586291694910105</v>
+        <v>10.11772874071097</v>
       </c>
       <c r="F208">
-        <v>0.2187355089766317</v>
+        <v>11.32684098868485</v>
       </c>
       <c r="G208">
-        <v>0.3370774046711884</v>
+        <v>13.9052363486174</v>
       </c>
       <c r="H208">
-        <v>0.08176117650609305</v>
+        <v>11.95733622483245</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>B3gnt8</t>
+          <t>Chsy3</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ENSMUSG00000059479</t>
+          <t>ENSMUSG00000058152</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7040,30 +7040,30 @@
         </is>
       </c>
       <c r="D209">
-        <v>0.2414970378408809</v>
+        <v>0.3346039694182077</v>
       </c>
       <c r="E209">
-        <v>0.1781596772505342</v>
+        <v>0.3481116267217285</v>
       </c>
       <c r="F209">
-        <v>0.3803217320062333</v>
+        <v>0.2137132891250379</v>
       </c>
       <c r="G209">
-        <v>0.2870626265640445</v>
+        <v>0.3260962902609913</v>
       </c>
       <c r="H209">
-        <v>0.08123457909808769</v>
+        <v>0.07926409801808641</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Galnt13</t>
+          <t>B3gnt8</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ENSMUSG00000060988</t>
+          <t>ENSMUSG00000059479</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7072,30 +7072,30 @@
         </is>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>0.2346698068270628</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.172934775918879</v>
       </c>
       <c r="F210">
-        <v>0.04795884027607028</v>
+        <v>0.3715894536422374</v>
       </c>
       <c r="G210">
-        <v>0.04223193438878572</v>
+        <v>0.277710864916697</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>0.0787535834884784</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Ext1</t>
+          <t>Galnt13</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ENSMUSG00000061731</t>
+          <t>ENSMUSG00000060988</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7104,30 +7104,30 @@
         </is>
       </c>
       <c r="D211">
-        <v>2.262229200880147</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>3.437850551408055</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>2.00792517857917</v>
+        <v>0.01039830096987858</v>
       </c>
       <c r="G211">
-        <v>2.440419421423744</v>
+        <v>0.009066479100312707</v>
       </c>
       <c r="H211">
-        <v>2.071810394425488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Galntl6</t>
+          <t>Ext1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ENSMUSG00000061864</t>
+          <t>ENSMUSG00000061731</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7136,30 +7136,30 @@
         </is>
       </c>
       <c r="D212">
-        <v>7.486099240453111</v>
+        <v>2.198274953247552</v>
       </c>
       <c r="E212">
-        <v>4.106023811633405</v>
+        <v>3.337028467526391</v>
       </c>
       <c r="F212">
-        <v>6.590396554384328</v>
+        <v>1.961822733943842</v>
       </c>
       <c r="G212">
-        <v>6.577207018542961</v>
+        <v>2.360916836841836</v>
       </c>
       <c r="H212">
-        <v>7.028973380567813</v>
+        <v>2.0085349697285</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Ugt2b38</t>
+          <t>Galntl6</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ENSMUSG00000061906</t>
+          <t>ENSMUSG00000061864</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7168,30 +7168,30 @@
         </is>
       </c>
       <c r="D213">
-        <v>0.03139504061478048</v>
+        <v>7.274463812690156</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>3.985606163755415</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>6.439079465722512</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>6.362938539643802</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>6.8143006107835</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Mtap</t>
+          <t>Ugt2b38</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ENSMUSG00000062937</t>
+          <t>ENSMUSG00000061906</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7200,30 +7200,30 @@
         </is>
       </c>
       <c r="D214">
-        <v>5.709688189090426</v>
+        <v>0.03050748854837984</v>
       </c>
       <c r="E214">
-        <v>4.768096296097712</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>8.681510295565953</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>10.6472489515427</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>6.404447666559551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Parp10</t>
+          <t>Mtap</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063268</t>
+          <t>ENSMUSG00000062937</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7232,30 +7232,30 @@
         </is>
       </c>
       <c r="D215">
-        <v>4.356788445315019</v>
+        <v>5.548272709081627</v>
       </c>
       <c r="E215">
-        <v>3.800947742803152</v>
+        <v>4.62826200210139</v>
       </c>
       <c r="F215">
-        <v>2.537904719408221</v>
+        <v>8.482180732879971</v>
       </c>
       <c r="G215">
-        <v>3.953958427196594</v>
+        <v>10.30038898030021</v>
       </c>
       <c r="H215">
-        <v>2.554040892776357</v>
+        <v>6.208848616018266</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Alg11</t>
+          <t>Parp10</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063362</t>
+          <t>ENSMUSG00000063268</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7264,30 +7264,30 @@
         </is>
       </c>
       <c r="D216">
-        <v>5.08697767461365</v>
+        <v>13.27909098724135</v>
       </c>
       <c r="E216">
-        <v>3.615950001857805</v>
+        <v>11.57234263401763</v>
       </c>
       <c r="F216">
-        <v>4.459359939508571</v>
+        <v>7.777571590765347</v>
       </c>
       <c r="G216">
-        <v>6.174836706820333</v>
+        <v>11.99788741458</v>
       </c>
       <c r="H216">
-        <v>4.964358136465546</v>
+        <v>7.76629178145692</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Pomgnt2</t>
+          <t>Alg11</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ENSMUSG00000066235</t>
+          <t>ENSMUSG00000063362</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7296,30 +7296,30 @@
         </is>
       </c>
       <c r="D217">
-        <v>0.8269922834462416</v>
+        <v>4.943166503854671</v>
       </c>
       <c r="E217">
-        <v>0.2218535449088543</v>
+        <v>3.509904782920091</v>
       </c>
       <c r="F217">
-        <v>0.3382829130490225</v>
+        <v>4.356971963645013</v>
       </c>
       <c r="G217">
-        <v>0.6255638706782946</v>
+        <v>5.973676417218535</v>
       </c>
       <c r="H217">
-        <v>0.480497906125772</v>
+        <v>4.8127410433773</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>B3galt4</t>
+          <t>Pomgnt2</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ENSMUSG00000067370</t>
+          <t>ENSMUSG00000066235</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7328,30 +7328,30 @@
         </is>
       </c>
       <c r="D218">
-        <v>11.76765760394711</v>
+        <v>0.8036128357469595</v>
       </c>
       <c r="E218">
-        <v>10.76097508823235</v>
+        <v>0.2153472304604023</v>
       </c>
       <c r="F218">
-        <v>8.989485716909602</v>
+        <v>0.3305158560708558</v>
       </c>
       <c r="G218">
-        <v>10.254850362597</v>
+        <v>0.6051846095957991</v>
       </c>
       <c r="H218">
-        <v>10.15691112464459</v>
+        <v>0.4658229584771226</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Pnp2</t>
+          <t>B3galt4</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ENSMUSG00000068417</t>
+          <t>ENSMUSG00000067370</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7360,30 +7360,30 @@
         </is>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>11.43498057539244</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>10.44538721820412</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>8.783084964538363</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>9.920773727585003</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>9.846707610485819</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>B3gnt9</t>
+          <t>Pnp2</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ENSMUSG00000069920</t>
+          <t>ENSMUSG00000068417</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7392,30 +7392,30 @@
         </is>
       </c>
       <c r="D220">
-        <v>1.097989220434256</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>0.9607212703348698</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.620018683338379</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>1.578329996950696</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>0.9534144417802443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>B3gat3</t>
+          <t>B3gnt9</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ENSMUSG00000071649</t>
+          <t>ENSMUSG00000069920</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7424,30 +7424,30 @@
         </is>
       </c>
       <c r="D221">
-        <v>12.45949739266506</v>
+        <v>0.9859520732648688</v>
       </c>
       <c r="E221">
-        <v>9.766232776202378</v>
+        <v>0.8617526840552248</v>
       </c>
       <c r="F221">
-        <v>9.11014267485262</v>
+        <v>1.462664028716109</v>
       </c>
       <c r="G221">
-        <v>11.23999900233201</v>
+        <v>1.410997836454071</v>
       </c>
       <c r="H221">
-        <v>10.47778924656784</v>
+        <v>0.8541289385698944</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Alg6</t>
+          <t>B3gat3</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ENSMUSG00000073792</t>
+          <t>ENSMUSG00000071649</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7456,30 +7456,30 @@
         </is>
       </c>
       <c r="D222">
-        <v>1.234021888718153</v>
+        <v>12.10726173886033</v>
       </c>
       <c r="E222">
-        <v>0.746792248949239</v>
+        <v>9.479817783623123</v>
       </c>
       <c r="F222">
-        <v>1.249328567997092</v>
+        <v>8.900971609731297</v>
       </c>
       <c r="G222">
-        <v>1.879410235082883</v>
+        <v>10.87382875981602</v>
       </c>
       <c r="H222">
-        <v>1.109093413067834</v>
+        <v>10.15778575288619</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>B3gnt6</t>
+          <t>Alg6</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074004</t>
+          <t>ENSMUSG00000073792</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7488,30 +7488,30 @@
         </is>
       </c>
       <c r="D223">
-        <v>0.2005676412248307</v>
+        <v>1.023603630185506</v>
       </c>
       <c r="E223">
-        <v>0.3329208495918977</v>
+        <v>0.6187799976997593</v>
       </c>
       <c r="F223">
-        <v>0.13537030760357</v>
+        <v>1.041963377475164</v>
       </c>
       <c r="G223">
-        <v>0.05960267091525418</v>
+        <v>1.552034428965645</v>
       </c>
       <c r="H223">
-        <v>0.02530004311015189</v>
+        <v>0.917827492624594</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Gcnt7</t>
+          <t>B3gnt6</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074569</t>
+          <t>ENSMUSG00000074004</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7520,30 +7520,30 @@
         </is>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>0.1948975028546834</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.3231572565207093</v>
       </c>
       <c r="F224">
-        <v>0.07219749738857066</v>
+        <v>0.1322621728094354</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>0.05766096927817119</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>0.02452735127650035</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>6430550D23Rik</t>
+          <t>Gcnt7</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074646</t>
+          <t>ENSMUSG00000074569</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7552,30 +7552,30 @@
         </is>
       </c>
       <c r="D225">
-        <v>0.1952895454031247</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>0.1728852131214065</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.1054463448701493</v>
+        <v>0.07053982549836553</v>
       </c>
       <c r="G225">
-        <v>0.5107007802633358</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>0.3153184320254721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>B3galt5</t>
+          <t>6430550D23Rik</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074892</t>
+          <t>ENSMUSG00000074646</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7584,30 +7584,30 @@
         </is>
       </c>
       <c r="D226">
-        <v>31.40841720776051</v>
+        <v>0.118751874938218</v>
       </c>
       <c r="E226">
-        <v>29.29341254384664</v>
+        <v>0.1050139129190393</v>
       </c>
       <c r="F226">
-        <v>11.27274078129997</v>
+        <v>0.06447032219282482</v>
       </c>
       <c r="G226">
-        <v>10.51619474119447</v>
+        <v>0.3091710431778105</v>
       </c>
       <c r="H226">
-        <v>17.45983157708559</v>
+        <v>0.1912911249823065</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Alg10b</t>
+          <t>B3galt5</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ENSMUSG00000075470</t>
+          <t>ENSMUSG00000074892</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7616,30 +7616,30 @@
         </is>
       </c>
       <c r="D227">
-        <v>4.141584563633747</v>
+        <v>29.7404290952097</v>
       </c>
       <c r="E227">
-        <v>2.873225141062496</v>
+        <v>27.70758393280932</v>
       </c>
       <c r="F227">
-        <v>3.762909543259955</v>
+        <v>10.73241676704023</v>
       </c>
       <c r="G227">
-        <v>4.430715748080671</v>
+        <v>9.913582110686679</v>
       </c>
       <c r="H227">
-        <v>4.050830835894714</v>
+        <v>16.49397041539743</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Dpm1</t>
+          <t>Alg10b</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ENSMUSG00000078919</t>
+          <t>ENSMUSG00000075470</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7648,30 +7648,30 @@
         </is>
       </c>
       <c r="D228">
-        <v>23.10583674032759</v>
+        <v>4.024500085778491</v>
       </c>
       <c r="E228">
-        <v>20.10928005254255</v>
+        <v>2.788961866132042</v>
       </c>
       <c r="F228">
-        <v>21.86624204149411</v>
+        <v>3.676512235861955</v>
       </c>
       <c r="G228">
-        <v>29.61575816646713</v>
+        <v>4.286374430998926</v>
       </c>
       <c r="H228">
-        <v>21.90633317229595</v>
+        <v>3.927113896252672</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>St6galnac4</t>
+          <t>Dpm1</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ENSMUSG00000079442</t>
+          <t>ENSMUSG00000078919</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7680,30 +7680,30 @@
         </is>
       </c>
       <c r="D229">
-        <v>0.3110845047568803</v>
+        <v>7.069688049472806</v>
       </c>
       <c r="E229">
-        <v>0.3623628294877798</v>
+        <v>6.146141907997883</v>
       </c>
       <c r="F229">
-        <v>0.5746331424804604</v>
+        <v>6.726970624390576</v>
       </c>
       <c r="G229">
-        <v>0.486552415634728</v>
+        <v>9.021364173782148</v>
       </c>
       <c r="H229">
-        <v>0.4461068825953313</v>
+        <v>6.687013826954533</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>B3gnt7</t>
+          <t>St6galnac4</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ENSMUSG00000079445</t>
+          <t>ENSMUSG00000079442</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7712,30 +7712,30 @@
         </is>
       </c>
       <c r="D230">
-        <v>7.88661172667491</v>
+        <v>0.3022900044276722</v>
       </c>
       <c r="E230">
-        <v>9.592384055682688</v>
+        <v>0.3517357894102958</v>
       </c>
       <c r="F230">
-        <v>5.835078913651017</v>
+        <v>0.5614394274359706</v>
       </c>
       <c r="G230">
-        <v>5.7122534988401</v>
+        <v>0.4707017900258872</v>
       </c>
       <c r="H230">
-        <v>5.940003305080929</v>
+        <v>0.4324822755693122</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Pigb</t>
+          <t>B3gnt7</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ENSMUSG00000079469</t>
+          <t>ENSMUSG00000079445</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7744,30 +7744,30 @@
         </is>
       </c>
       <c r="D231">
-        <v>3.397193152693015</v>
+        <v>10.54773649777734</v>
       </c>
       <c r="E231">
-        <v>2.383957998101181</v>
+        <v>12.81512600201101</v>
       </c>
       <c r="F231">
-        <v>3.467293628947266</v>
+        <v>7.846615557035673</v>
       </c>
       <c r="G231">
-        <v>5.884900699551628</v>
+        <v>7.605838386833224</v>
       </c>
       <c r="H231">
-        <v>3.637274027481543</v>
+        <v>7.925733775386312</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Galnt2</t>
+          <t>Pigb</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ENSMUSG00000089704</t>
+          <t>ENSMUSG00000079469</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7776,30 +7776,30 @@
         </is>
       </c>
       <c r="D232">
-        <v>64.63651875317734</v>
+        <v>1.383606957966913</v>
       </c>
       <c r="E232">
-        <v>67.56520582819081</v>
+        <v>0.9698813478340172</v>
       </c>
       <c r="F232">
-        <v>54.04964797205044</v>
+        <v>1.419874463526621</v>
       </c>
       <c r="G232">
-        <v>55.09332962550822</v>
+        <v>2.386175847098533</v>
       </c>
       <c r="H232">
-        <v>56.96814336343495</v>
+        <v>1.477925358461391</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Ugt1a5</t>
+          <t>Galnt2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ENSMUSG00000089943</t>
+          <t>ENSMUSG00000089704</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7808,30 +7808,30 @@
         </is>
       </c>
       <c r="D233">
-        <v>0.2694871620633223</v>
+        <v>62.80921499242609</v>
       </c>
       <c r="E233">
-        <v>0.1192853036516286</v>
+        <v>65.58371630512191</v>
       </c>
       <c r="F233">
-        <v>0.07275462741835083</v>
+        <v>52.80865506565456</v>
       </c>
       <c r="G233">
-        <v>0.06406678380722737</v>
+        <v>53.29853072331969</v>
       </c>
       <c r="H233">
-        <v>0.3807294730766027</v>
+        <v>55.22827205319383</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Ugt1a1</t>
+          <t>Ugt1a5</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ENSMUSG00000089960</t>
+          <t>ENSMUSG00000089943</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7840,30 +7840,30 @@
         </is>
       </c>
       <c r="D234">
-        <v>1.468183992419174</v>
+        <v>0.26186863751696</v>
       </c>
       <c r="E234">
-        <v>2.097321515294761</v>
+        <v>0.1157870151976153</v>
       </c>
       <c r="F234">
-        <v>0.7927441035201869</v>
+        <v>0.07108416368877508</v>
       </c>
       <c r="G234">
-        <v>0.9836584681985113</v>
+        <v>0.06197965286005872</v>
       </c>
       <c r="H234">
-        <v>1.454661471484417</v>
+        <v>0.3691015658277528</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Galnt4</t>
+          <t>Ugt1a1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ENSMUSG00000090035</t>
+          <t>ENSMUSG00000089960</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7872,30 +7872,30 @@
         </is>
       </c>
       <c r="D235">
-        <v>64.15106148402866</v>
+        <v>1.426677763702448</v>
       </c>
       <c r="E235">
-        <v>61.0489655498978</v>
+        <v>2.035813220335499</v>
       </c>
       <c r="F235">
-        <v>54.077046314779</v>
+        <v>0.774542508394823</v>
       </c>
       <c r="G235">
-        <v>60.36339260542663</v>
+        <v>0.951613406648379</v>
       </c>
       <c r="H235">
-        <v>61.37029816629381</v>
+        <v>1.41023447051648</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Ugt1a7c</t>
+          <t>Galnt4</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ENSMUSG00000090124</t>
+          <t>ENSMUSG00000090035</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7904,30 +7904,30 @@
         </is>
       </c>
       <c r="D236">
-        <v>36.08752547824451</v>
+        <v>62.33748182090382</v>
       </c>
       <c r="E236">
-        <v>12.07788619800801</v>
+        <v>59.25857826181758</v>
       </c>
       <c r="F236">
-        <v>28.62292240944466</v>
+        <v>52.83542433584984</v>
       </c>
       <c r="G236">
-        <v>26.75571460708284</v>
+        <v>58.39690861331675</v>
       </c>
       <c r="H236">
-        <v>72.83455654263395</v>
+        <v>59.49598008646304</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Ugt1a6b</t>
+          <t>Ugt1a7c</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ENSMUSG00000090145</t>
+          <t>ENSMUSG00000090124</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7936,30 +7936,30 @@
         </is>
       </c>
       <c r="D237">
-        <v>3.167702363853262</v>
+        <v>166.1326890022772</v>
       </c>
       <c r="E237">
-        <v>1.63583696541731</v>
+        <v>55.54135041104319</v>
       </c>
       <c r="F237">
-        <v>4.347258824526563</v>
+        <v>132.4886863253319</v>
       </c>
       <c r="G237">
-        <v>2.416121076923918</v>
+        <v>122.6267886232544</v>
       </c>
       <c r="H237">
-        <v>4.981442369882179</v>
+        <v>334.5179706858842</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Ugt1a10</t>
+          <t>Ugt1a6b</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ENSMUSG00000090165</t>
+          <t>ENSMUSG00000090145</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7968,30 +7968,30 @@
         </is>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>3.005974512113919</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1.550630969485389</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>4.147852005639888</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>2.282603233674473</v>
       </c>
       <c r="H238">
-        <v>0.05339616941607814</v>
+        <v>4.716067556602161</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ugt1a2</t>
+          <t>Ugt1a10</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ENSMUSG00000090171</t>
+          <t>ENSMUSG00000090165</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8000,10 +8000,10 @@
         </is>
       </c>
       <c r="D239">
-        <v>0.1611072504818179</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>0.1188536969446124</v>
+        <v>0</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -8012,18 +8012,18 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>0.1083862543371139</v>
+        <v>0.1620105099658377</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Ugt1a9</t>
+          <t>Ugt1a2</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ENSMUSG00000090175</t>
+          <t>ENSMUSG00000090171</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8032,10 +8032,10 @@
         </is>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>0.156552675291686</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.1153680662507221</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -8044,18 +8044,18 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>0.105076015961561</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Gcnt4</t>
+          <t>Ugt1a9</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ENSMUSG00000091387</t>
+          <t>ENSMUSG00000090175</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8064,30 +8064,30 @@
         </is>
       </c>
       <c r="D241">
-        <v>0.6411233455998909</v>
+        <v>0</v>
       </c>
       <c r="E241">
-        <v>0.6320680676066345</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.7552881721702425</v>
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>0.9006521801763129</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>0.7057981788907089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Art2a-ps</t>
+          <t>Gcnt4</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ENSMUSG00000092517</t>
+          <t>ENSMUSG00000091387</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8096,30 +8096,30 @@
         </is>
       </c>
       <c r="D242">
-        <v>0.09445985966992825</v>
+        <v>0.6229984972460721</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.6135313631227656</v>
       </c>
       <c r="F242">
-        <v>0.06375435330255644</v>
+        <v>0.7379465742299068</v>
       </c>
       <c r="G242">
-        <v>0.05614125884141683</v>
+        <v>0.8713112498818092</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>0.6842423069635124</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Tmem260</t>
+          <t>Art2a-ps</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036339</t>
+          <t>ENSMUSG00000092517</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8128,19 +8128,19 @@
         </is>
       </c>
       <c r="D243">
-        <v>6.070161795458239</v>
+        <v>0.09178943650753586</v>
       </c>
       <c r="E243">
-        <v>3.956540373099889</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>4.283196223850215</v>
+        <v>0.06229053802958294</v>
       </c>
       <c r="G243">
-        <v>5.343280186714066</v>
+        <v>0.05431232110211192</v>
       </c>
       <c r="H243">
-        <v>6.114026839409472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -8160,19 +8160,19 @@
         </is>
       </c>
       <c r="D244">
-        <v>13.9887585412211</v>
+        <v>13.59328997973769</v>
       </c>
       <c r="E244">
-        <v>14.43630762214226</v>
+        <v>14.01293301750013</v>
       </c>
       <c r="F244">
-        <v>13.98799205739643</v>
+        <v>13.66682439823004</v>
       </c>
       <c r="G244">
-        <v>16.7349151293553</v>
+        <v>16.1897346600217</v>
       </c>
       <c r="H244">
-        <v>14.36583143789272</v>
+        <v>13.92708275326221</v>
       </c>
     </row>
   </sheetData>
